--- a/data/OBT_Bogs.xlsx
+++ b/data/OBT_Bogs.xlsx
@@ -3511,8 +3511,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3529,15 +3531,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3819,14 +3823,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -3842,22 +3846,22 @@
     <col min="15" max="15" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3905,7 +3909,7 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -3914,28 +3918,28 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2"/>
@@ -3969,7 +3973,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -3978,26 +3982,26 @@
       <c r="T2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2"/>
@@ -4031,7 +4035,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -4040,26 +4044,26 @@
       <c r="T3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="3">
         <v>731115</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2"/>
@@ -4093,7 +4097,7 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -4102,26 +4106,26 @@
       <c r="T4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2"/>
@@ -4155,7 +4159,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -4164,26 +4168,26 @@
       <c r="T5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2"/>
@@ -4217,7 +4221,7 @@
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -4226,26 +4230,26 @@
       <c r="T6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2"/>
@@ -4279,7 +4283,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -4288,26 +4292,26 @@
       <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="2"/>
@@ -4335,7 +4339,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -4344,26 +4348,26 @@
       <c r="T8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="3" t="s">
         <v>77</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="X8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2"/>
@@ -4397,7 +4401,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="3" t="s">
         <v>80</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -4406,26 +4410,26 @@
       <c r="T9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="W9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2"/>
@@ -4459,7 +4463,7 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="3" t="s">
         <v>86</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -4468,26 +4472,26 @@
       <c r="T10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2"/>
@@ -4521,7 +4525,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="3" t="s">
         <v>91</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -4530,26 +4534,26 @@
       <c r="T11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="3" t="s">
         <v>93</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2"/>
@@ -4583,7 +4587,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="3" t="s">
         <v>96</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -4592,26 +4596,26 @@
       <c r="T12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="3" t="s">
         <v>98</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="W12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="X12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2"/>
@@ -4645,7 +4649,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="3" t="s">
         <v>101</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -4654,26 +4658,26 @@
       <c r="T13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="3" t="s">
         <v>103</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="X13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="2"/>
@@ -4701,7 +4705,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -4710,26 +4714,26 @@
       <c r="T14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="3" t="s">
         <v>108</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="W14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="X14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
+      <c r="Z14" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
@@ -4763,7 +4767,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="3" t="s">
         <v>113</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -4772,26 +4776,26 @@
       <c r="T15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="3" t="s">
         <v>115</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="W15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="X15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2" t="s">
+      <c r="Z15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="2"/>
@@ -4825,7 +4829,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="3" t="s">
         <v>119</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -4834,28 +4838,28 @@
       <c r="T16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="3" t="s">
         <v>121</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="3">
         <v>793133</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2"/>
@@ -4889,7 +4893,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="3" t="s">
         <v>125</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -4898,26 +4902,26 @@
       <c r="T17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="3" t="s">
         <v>127</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="W17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2"/>
@@ -4951,7 +4955,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="3" t="s">
         <v>130</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -4960,26 +4964,26 @@
       <c r="T18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="3" t="s">
         <v>132</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="W18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2" t="s">
+      <c r="Z18" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="2"/>
@@ -5013,7 +5017,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="3" t="s">
         <v>136</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -5022,26 +5026,26 @@
       <c r="T19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="3" t="s">
         <v>138</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="W19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2"/>
@@ -5075,7 +5079,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="3" t="s">
         <v>142</v>
       </c>
       <c r="S20" s="3" t="s">
@@ -5084,26 +5088,26 @@
       <c r="T20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="3" t="s">
         <v>144</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2"/>
@@ -5137,7 +5141,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="3" t="s">
         <v>147</v>
       </c>
       <c r="S21" s="3" t="s">
@@ -5146,26 +5150,26 @@
       <c r="T21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="3" t="s">
         <v>149</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2" t="s">
+      <c r="Z21" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C22" s="2"/>
@@ -5199,7 +5203,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="S22" s="3" t="s">
@@ -5208,28 +5212,28 @@
       <c r="T22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="3" t="s">
         <v>154</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="X22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z22" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2"/>
@@ -5263,7 +5267,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="3" t="s">
         <v>158</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -5272,26 +5276,26 @@
       <c r="T23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U23" s="3" t="s">
         <v>160</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="W23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="X23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2" t="s">
+      <c r="Z23" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2"/>
@@ -5325,7 +5329,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="3" t="s">
         <v>163</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -5334,26 +5338,26 @@
       <c r="T24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="3" t="s">
         <v>165</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="3">
         <v>680964</v>
       </c>
-      <c r="X24" s="2" t="s">
+      <c r="X24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2" t="s">
+      <c r="Z24" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="2"/>
@@ -5381,33 +5385,33 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="3" t="s">
         <v>168</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>169</v>
       </c>
       <c r="T25" s="3"/>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="3" t="s">
         <v>170</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="3">
         <v>673096</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="X25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2" t="s">
+      <c r="Z25" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="2"/>
@@ -5435,7 +5439,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="3" t="s">
         <v>173</v>
       </c>
       <c r="S26" s="3" t="s">
@@ -5444,26 +5448,26 @@
       <c r="T26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="3" t="s">
         <v>175</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X26" s="2" t="s">
+      <c r="X26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
+      <c r="Z26" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
@@ -5497,7 +5501,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="3" t="s">
         <v>178</v>
       </c>
       <c r="S27" s="3" t="s">
@@ -5506,26 +5510,26 @@
       <c r="T27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="3" t="s">
         <v>180</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W27" s="2" t="s">
+      <c r="W27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X27" s="2" t="s">
+      <c r="X27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2"/>
@@ -5559,7 +5563,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="3" t="s">
         <v>183</v>
       </c>
       <c r="S28" s="3" t="s">
@@ -5568,26 +5572,26 @@
       <c r="T28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="U28" s="3" t="s">
         <v>185</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W28" s="2" t="s">
+      <c r="W28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="X28" s="2" t="s">
+      <c r="X28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="2"/>
@@ -5621,7 +5625,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="3" t="s">
         <v>189</v>
       </c>
       <c r="S29" s="3" t="s">
@@ -5630,26 +5634,26 @@
       <c r="T29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="3" t="s">
         <v>191</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W29" s="2" t="s">
+      <c r="W29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X29" s="2" t="s">
+      <c r="X29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2" t="s">
+      <c r="Z29" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="2"/>
@@ -5683,7 +5687,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="3" t="s">
         <v>194</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -5692,26 +5696,26 @@
       <c r="T30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="3" t="s">
         <v>196</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="W30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="2" t="s">
+      <c r="X30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2" t="s">
+      <c r="Z30" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="2"/>
@@ -5745,7 +5749,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="3" t="s">
         <v>199</v>
       </c>
       <c r="S31" s="3" t="s">
@@ -5754,26 +5758,26 @@
       <c r="T31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U31" s="3" t="s">
         <v>201</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W31" s="2" t="s">
+      <c r="W31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X31" s="2" t="s">
+      <c r="X31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2" t="s">
+      <c r="Z31" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="2"/>
@@ -5807,7 +5811,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="3" t="s">
         <v>206</v>
       </c>
       <c r="S32" s="3" t="s">
@@ -5816,28 +5820,28 @@
       <c r="T32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="3" t="s">
         <v>208</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="3">
         <v>628963</v>
       </c>
-      <c r="X32" s="2" t="s">
+      <c r="X32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z32" s="2" t="s">
+      <c r="Z32" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
@@ -5871,7 +5875,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="3" t="s">
         <v>211</v>
       </c>
       <c r="S33" s="3" t="s">
@@ -5880,24 +5884,24 @@
       <c r="T33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="U33" s="3" t="s">
         <v>213</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2" t="s">
+      <c r="W33" s="3"/>
+      <c r="X33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2" t="s">
+      <c r="Z33" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2"/>
@@ -5931,7 +5935,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2" t="s">
+      <c r="R34" s="3" t="s">
         <v>216</v>
       </c>
       <c r="S34" s="3" t="s">
@@ -5940,26 +5944,26 @@
       <c r="T34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="U34" s="3" t="s">
         <v>218</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W34" s="2" t="s">
+      <c r="W34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X34" s="2" t="s">
+      <c r="X34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2" t="s">
+      <c r="Z34" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="2"/>
@@ -5987,7 +5991,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="3" t="s">
         <v>221</v>
       </c>
       <c r="S35" s="3" t="s">
@@ -5996,26 +6000,26 @@
       <c r="T35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U35" s="3" t="s">
         <v>223</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="2" t="s">
+      <c r="W35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X35" s="2" t="s">
+      <c r="X35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2" t="s">
+      <c r="Z35" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="2"/>
@@ -6049,7 +6053,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="3" t="s">
         <v>226</v>
       </c>
       <c r="S36" s="3" t="s">
@@ -6058,26 +6062,26 @@
       <c r="T36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="U36" s="3" t="s">
         <v>228</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="3">
         <v>683963</v>
       </c>
-      <c r="X36" s="2" t="s">
+      <c r="X36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2" t="s">
+      <c r="Z36" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="2"/>
@@ -6111,7 +6115,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2" t="s">
+      <c r="R37" s="3" t="s">
         <v>231</v>
       </c>
       <c r="S37" s="3" t="s">
@@ -6120,26 +6124,26 @@
       <c r="T37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" s="3" t="s">
         <v>233</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W37" s="2" t="s">
+      <c r="W37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="X37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2" t="s">
+      <c r="Z37" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="2"/>
@@ -6173,7 +6177,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="3" t="s">
         <v>236</v>
       </c>
       <c r="S38" s="3" t="s">
@@ -6182,26 +6186,26 @@
       <c r="T38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U38" s="3" t="s">
         <v>238</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W38" s="2">
+      <c r="W38" s="3">
         <v>731115</v>
       </c>
-      <c r="X38" s="2" t="s">
+      <c r="X38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2" t="s">
+      <c r="Z38" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="2"/>
@@ -6235,7 +6239,7 @@
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="3" t="s">
         <v>241</v>
       </c>
       <c r="S39" s="3" t="s">
@@ -6244,26 +6248,26 @@
       <c r="T39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U39" s="3" t="s">
         <v>243</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W39" s="2" t="s">
+      <c r="W39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X39" s="2" t="s">
+      <c r="X39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2" t="s">
+      <c r="Z39" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="2"/>
@@ -6297,7 +6301,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2" t="s">
+      <c r="R40" s="3" t="s">
         <v>247</v>
       </c>
       <c r="S40" s="3" t="s">
@@ -6306,26 +6310,26 @@
       <c r="T40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U40" s="2" t="s">
+      <c r="U40" s="3" t="s">
         <v>249</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W40" s="2" t="s">
+      <c r="W40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X40" s="2" t="s">
+      <c r="X40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2" t="s">
+      <c r="Z40" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="2"/>
@@ -6353,7 +6357,7 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="3" t="s">
         <v>252</v>
       </c>
       <c r="S41" s="3" t="s">
@@ -6362,26 +6366,26 @@
       <c r="T41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="2" t="s">
+      <c r="U41" s="3" t="s">
         <v>254</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="W41" s="2" t="s">
+      <c r="W41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X41" s="2" t="s">
+      <c r="X41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2" t="s">
+      <c r="Z41" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="2"/>
@@ -6415,7 +6419,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="3" t="s">
         <v>258</v>
       </c>
       <c r="S42" s="3" t="s">
@@ -6424,26 +6428,26 @@
       <c r="T42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="2" t="s">
+      <c r="U42" s="3" t="s">
         <v>260</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W42" s="2" t="s">
+      <c r="W42" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="X42" s="2" t="s">
+      <c r="X42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2" t="s">
+      <c r="Z42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="2"/>
@@ -6477,7 +6481,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="3" t="s">
         <v>263</v>
       </c>
       <c r="S43" s="3" t="s">
@@ -6486,28 +6490,28 @@
       <c r="T43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U43" s="2" t="s">
+      <c r="U43" s="3" t="s">
         <v>265</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="3">
         <v>73133</v>
       </c>
-      <c r="X43" s="2" t="s">
+      <c r="X43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y43" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Z43" s="2" t="s">
+      <c r="Z43" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="2"/>
@@ -6541,7 +6545,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2" t="s">
+      <c r="R44" s="3" t="s">
         <v>269</v>
       </c>
       <c r="S44" s="3" t="s">
@@ -6550,26 +6554,26 @@
       <c r="T44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W44" s="2" t="s">
+      <c r="W44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X44" s="2" t="s">
+      <c r="X44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="2" t="s">
+      <c r="Z44" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="2"/>
@@ -6603,7 +6607,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2" t="s">
+      <c r="R45" s="3" t="s">
         <v>274</v>
       </c>
       <c r="S45" s="3" t="s">
@@ -6612,26 +6616,26 @@
       <c r="T45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="U45" s="3" t="s">
         <v>276</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W45" s="2" t="s">
+      <c r="W45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X45" s="2" t="s">
+      <c r="X45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2" t="s">
+      <c r="Z45" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C46" s="2"/>
@@ -6665,7 +6669,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2" t="s">
+      <c r="R46" s="3" t="s">
         <v>279</v>
       </c>
       <c r="S46" s="3" t="s">
@@ -6674,26 +6678,26 @@
       <c r="T46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="2" t="s">
+      <c r="U46" s="3" t="s">
         <v>281</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W46" s="2" t="s">
+      <c r="W46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X46" s="2" t="s">
+      <c r="X46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2" t="s">
+      <c r="Z46" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="2"/>
@@ -6727,7 +6731,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2" t="s">
+      <c r="R47" s="3" t="s">
         <v>284</v>
       </c>
       <c r="S47" s="3" t="s">
@@ -6736,26 +6740,26 @@
       <c r="T47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="U47" s="3" t="s">
         <v>286</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W47" s="2" t="s">
+      <c r="W47" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="X47" s="2" t="s">
+      <c r="X47" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="2" t="s">
+      <c r="Z47" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="2"/>
@@ -6789,7 +6793,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2" t="s">
+      <c r="R48" s="3" t="s">
         <v>290</v>
       </c>
       <c r="S48" s="3" t="s">
@@ -6798,26 +6802,26 @@
       <c r="T48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="U48" s="3" t="s">
         <v>292</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W48" s="2" t="s">
+      <c r="W48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X48" s="2" t="s">
+      <c r="X48" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="2" t="s">
+      <c r="Z48" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="2"/>
@@ -6851,7 +6855,7 @@
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2" t="s">
+      <c r="R49" s="3" t="s">
         <v>294</v>
       </c>
       <c r="S49" s="3" t="s">
@@ -6860,26 +6864,26 @@
       <c r="T49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="3" t="s">
         <v>296</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W49" s="2" t="s">
+      <c r="W49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X49" s="2" t="s">
+      <c r="X49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="2" t="s">
+      <c r="Z49" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="2"/>
@@ -6907,7 +6911,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2" t="s">
+      <c r="R50" s="3" t="s">
         <v>299</v>
       </c>
       <c r="S50" s="3" t="s">
@@ -6916,26 +6920,26 @@
       <c r="T50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="U50" s="3" t="s">
         <v>301</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W50" s="2" t="s">
+      <c r="W50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X50" s="2" t="s">
+      <c r="X50" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2" t="s">
+      <c r="Z50" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="2"/>
@@ -6969,7 +6973,7 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2" t="s">
+      <c r="R51" s="3" t="s">
         <v>304</v>
       </c>
       <c r="S51" s="3" t="s">
@@ -6978,26 +6982,26 @@
       <c r="T51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="U51" s="3" t="s">
         <v>306</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="W51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="X51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="2" t="s">
+      <c r="Z51" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="2"/>
@@ -7031,7 +7035,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2" t="s">
+      <c r="R52" s="3" t="s">
         <v>308</v>
       </c>
       <c r="S52" s="3" t="s">
@@ -7040,26 +7044,26 @@
       <c r="T52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U52" s="2" t="s">
+      <c r="U52" s="3" t="s">
         <v>310</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W52" s="2" t="s">
+      <c r="W52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X52" s="2" t="s">
+      <c r="X52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y52" s="2"/>
-      <c r="Z52" s="2" t="s">
+      <c r="Z52" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="2"/>
@@ -7093,7 +7097,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2" t="s">
+      <c r="R53" s="3" t="s">
         <v>313</v>
       </c>
       <c r="S53" s="3" t="s">
@@ -7102,26 +7106,26 @@
       <c r="T53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="2" t="s">
+      <c r="U53" s="3" t="s">
         <v>315</v>
       </c>
       <c r="V53" s="2"/>
-      <c r="W53" s="2" t="s">
+      <c r="W53" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="X53" s="2" t="s">
+      <c r="X53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y53" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="Z53" s="2" t="s">
+      <c r="Z53" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C54" s="2"/>
@@ -7155,7 +7159,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2" t="s">
+      <c r="R54" s="3" t="s">
         <v>320</v>
       </c>
       <c r="S54" s="3" t="s">
@@ -7164,28 +7168,28 @@
       <c r="T54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="2" t="s">
+      <c r="U54" s="3" t="s">
         <v>322</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W54" s="2" t="s">
+      <c r="W54" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="X54" s="2" t="s">
+      <c r="X54" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z54" s="2" t="s">
+      <c r="Z54" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C55" s="2"/>
@@ -7219,7 +7223,7 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2" t="s">
+      <c r="R55" s="3" t="s">
         <v>327</v>
       </c>
       <c r="S55" s="3" t="s">
@@ -7228,26 +7232,26 @@
       <c r="T55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U55" s="2" t="s">
+      <c r="U55" s="3" t="s">
         <v>329</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W55" s="2" t="s">
+      <c r="W55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X55" s="2" t="s">
+      <c r="X55" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y55" s="2"/>
-      <c r="Z55" s="2" t="s">
+      <c r="Z55" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="2"/>
@@ -7281,7 +7285,7 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2" t="s">
+      <c r="R56" s="3" t="s">
         <v>332</v>
       </c>
       <c r="S56" s="3" t="s">
@@ -7290,26 +7294,26 @@
       <c r="T56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="2" t="s">
+      <c r="U56" s="3" t="s">
         <v>334</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="2" t="s">
+      <c r="W56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X56" s="2" t="s">
+      <c r="X56" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="2" t="s">
+      <c r="Z56" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="2"/>
@@ -7343,7 +7347,7 @@
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2" t="s">
+      <c r="R57" s="3" t="s">
         <v>337</v>
       </c>
       <c r="S57" s="3" t="s">
@@ -7352,26 +7356,26 @@
       <c r="T57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U57" s="2" t="s">
+      <c r="U57" s="3" t="s">
         <v>339</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W57" s="2" t="s">
+      <c r="W57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X57" s="2" t="s">
+      <c r="X57" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2" t="s">
+      <c r="Z57" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="2"/>
@@ -7399,7 +7403,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
+      <c r="R58" s="3" t="s">
         <v>342</v>
       </c>
       <c r="S58" s="3" t="s">
@@ -7408,26 +7412,26 @@
       <c r="T58" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="2" t="s">
+      <c r="U58" s="3" t="s">
         <v>344</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W58" s="2" t="s">
+      <c r="W58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X58" s="2" t="s">
+      <c r="X58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="2" t="s">
+      <c r="Z58" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C59" s="2"/>
@@ -7461,7 +7465,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2" t="s">
+      <c r="R59" s="3" t="s">
         <v>346</v>
       </c>
       <c r="S59" s="3" t="s">
@@ -7470,26 +7474,26 @@
       <c r="T59" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U59" s="2" t="s">
+      <c r="U59" s="3" t="s">
         <v>348</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W59" s="2" t="s">
+      <c r="W59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X59" s="2" t="s">
+      <c r="X59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y59" s="2"/>
-      <c r="Z59" s="2" t="s">
+      <c r="Z59" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="2"/>
@@ -7523,7 +7527,7 @@
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2" t="s">
+      <c r="R60" s="3" t="s">
         <v>351</v>
       </c>
       <c r="S60" s="3" t="s">
@@ -7532,26 +7536,26 @@
       <c r="T60" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="2" t="s">
+      <c r="U60" s="3" t="s">
         <v>353</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W60" s="2" t="s">
+      <c r="W60" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X60" s="2" t="s">
+      <c r="X60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="2" t="s">
+      <c r="Z60" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
@@ -7585,7 +7589,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
-      <c r="R61" s="2" t="s">
+      <c r="R61" s="3" t="s">
         <v>357</v>
       </c>
       <c r="S61" s="3" t="s">
@@ -7594,26 +7598,26 @@
       <c r="T61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U61" s="2" t="s">
+      <c r="U61" s="3" t="s">
         <v>359</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W61" s="2" t="s">
+      <c r="W61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X61" s="2" t="s">
+      <c r="X61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y61" s="2"/>
-      <c r="Z61" s="2" t="s">
+      <c r="Z61" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="2"/>
@@ -7647,7 +7651,7 @@
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2" t="s">
+      <c r="R62" s="3" t="s">
         <v>362</v>
       </c>
       <c r="S62" s="3" t="s">
@@ -7656,26 +7660,26 @@
       <c r="T62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U62" s="2" t="s">
+      <c r="U62" s="3" t="s">
         <v>364</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W62" s="2" t="s">
+      <c r="W62" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X62" s="2" t="s">
+      <c r="X62" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y62" s="2"/>
-      <c r="Z62" s="2" t="s">
+      <c r="Z62" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="2"/>
@@ -7709,7 +7713,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2" t="s">
+      <c r="R63" s="3" t="s">
         <v>367</v>
       </c>
       <c r="S63" s="3" t="s">
@@ -7718,26 +7722,26 @@
       <c r="T63" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="2" t="s">
+      <c r="U63" s="3" t="s">
         <v>369</v>
       </c>
       <c r="V63" s="2"/>
-      <c r="W63" s="2" t="s">
+      <c r="W63" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="X63" s="2" t="s">
+      <c r="X63" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y63" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="Z63" s="2" t="s">
+      <c r="Z63" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C64" s="2"/>
@@ -7771,7 +7775,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2" t="s">
+      <c r="R64" s="3" t="s">
         <v>373</v>
       </c>
       <c r="S64" s="3" t="s">
@@ -7780,26 +7784,26 @@
       <c r="T64" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="2" t="s">
+      <c r="U64" s="3" t="s">
         <v>375</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="W64" s="2">
+      <c r="W64" s="3">
         <v>730115</v>
       </c>
-      <c r="X64" s="2" t="s">
+      <c r="X64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y64" s="2"/>
-      <c r="Z64" s="2" t="s">
+      <c r="Z64" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="2"/>
@@ -7833,7 +7837,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2" t="s">
+      <c r="R65" s="3" t="s">
         <v>379</v>
       </c>
       <c r="S65" s="3" t="s">
@@ -7842,26 +7846,26 @@
       <c r="T65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="2" t="s">
+      <c r="U65" s="3" t="s">
         <v>381</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W65" s="2" t="s">
+      <c r="W65" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X65" s="2" t="s">
+      <c r="X65" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="2" t="s">
+      <c r="Z65" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="2"/>
@@ -7895,7 +7899,7 @@
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="2" t="s">
+      <c r="R66" s="3" t="s">
         <v>385</v>
       </c>
       <c r="S66" s="3" t="s">
@@ -7904,26 +7908,26 @@
       <c r="T66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U66" s="2" t="s">
+      <c r="U66" s="3" t="s">
         <v>387</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W66" s="2" t="s">
+      <c r="W66" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X66" s="2" t="s">
+      <c r="X66" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y66" s="2"/>
-      <c r="Z66" s="2" t="s">
+      <c r="Z66" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="2"/>
@@ -7957,7 +7961,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="2" t="s">
+      <c r="R67" s="3" t="s">
         <v>390</v>
       </c>
       <c r="S67" s="3" t="s">
@@ -7966,26 +7970,26 @@
       <c r="T67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U67" s="2" t="s">
+      <c r="U67" s="3" t="s">
         <v>392</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W67" s="2" t="s">
+      <c r="W67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X67" s="2" t="s">
+      <c r="X67" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="2" t="s">
+      <c r="Z67" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C68" s="2"/>
@@ -8019,7 +8023,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="2" t="s">
+      <c r="R68" s="3" t="s">
         <v>395</v>
       </c>
       <c r="S68" s="3" t="s">
@@ -8028,26 +8032,26 @@
       <c r="T68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U68" s="2" t="s">
+      <c r="U68" s="3" t="s">
         <v>397</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W68" s="2" t="s">
+      <c r="W68" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X68" s="2" t="s">
+      <c r="X68" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y68" s="2"/>
-      <c r="Z68" s="2" t="s">
+      <c r="Z68" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
@@ -8081,7 +8085,7 @@
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2" t="s">
+      <c r="R69" s="3" t="s">
         <v>400</v>
       </c>
       <c r="S69" s="3" t="s">
@@ -8090,26 +8094,26 @@
       <c r="T69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U69" s="2" t="s">
+      <c r="U69" s="3" t="s">
         <v>402</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W69" s="2" t="s">
+      <c r="W69" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X69" s="2" t="s">
+      <c r="X69" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="2" t="s">
+      <c r="Z69" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="2"/>
@@ -8143,7 +8147,7 @@
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2" t="s">
+      <c r="R70" s="3" t="s">
         <v>405</v>
       </c>
       <c r="S70" s="3" t="s">
@@ -8152,26 +8156,26 @@
       <c r="T70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U70" s="2" t="s">
+      <c r="U70" s="3" t="s">
         <v>407</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W70" s="2" t="s">
+      <c r="W70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X70" s="2" t="s">
+      <c r="X70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y70" s="2"/>
-      <c r="Z70" s="2" t="s">
+      <c r="Z70" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C71" s="2"/>
@@ -8205,7 +8209,7 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="2" t="s">
+      <c r="R71" s="3" t="s">
         <v>410</v>
       </c>
       <c r="S71" s="3" t="s">
@@ -8214,26 +8218,26 @@
       <c r="T71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U71" s="2" t="s">
+      <c r="U71" s="3" t="s">
         <v>412</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W71" s="2" t="s">
+      <c r="W71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X71" s="2" t="s">
+      <c r="X71" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y71" s="2"/>
-      <c r="Z71" s="2" t="s">
+      <c r="Z71" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="2"/>
@@ -8261,7 +8265,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2" t="s">
+      <c r="R72" s="3" t="s">
         <v>414</v>
       </c>
       <c r="S72" s="3" t="s">
@@ -8270,28 +8274,28 @@
       <c r="T72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U72" s="2" t="s">
+      <c r="U72" s="3" t="s">
         <v>416</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="W72" s="2" t="s">
+      <c r="W72" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="X72" s="2" t="s">
+      <c r="X72" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z72" s="2" t="s">
+      <c r="Z72" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="2"/>
@@ -8325,7 +8329,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2" t="s">
+      <c r="R73" s="3" t="s">
         <v>421</v>
       </c>
       <c r="S73" s="3" t="s">
@@ -8334,26 +8338,26 @@
       <c r="T73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U73" s="2" t="s">
+      <c r="U73" s="3" t="s">
         <v>423</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W73" s="2" t="s">
+      <c r="W73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X73" s="2" t="s">
+      <c r="X73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y73" s="2"/>
-      <c r="Z73" s="2" t="s">
+      <c r="Z73" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C74" s="2"/>
@@ -8387,7 +8391,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2" t="s">
+      <c r="R74" s="3" t="s">
         <v>426</v>
       </c>
       <c r="S74" s="3" t="s">
@@ -8396,22 +8400,22 @@
       <c r="T74" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="2" t="s">
+      <c r="U74" s="3" t="s">
         <v>428</v>
       </c>
       <c r="V74" s="2"/>
-      <c r="W74" s="2" t="s">
+      <c r="W74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X74" s="2"/>
+      <c r="X74" s="3"/>
       <c r="Y74" s="2"/>
-      <c r="Z74" s="2" t="s">
+      <c r="Z74" s="3" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C75" s="2"/>
@@ -8445,7 +8449,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2" t="s">
+      <c r="R75" s="3" t="s">
         <v>431</v>
       </c>
       <c r="S75" s="3" t="s">
@@ -8454,26 +8458,26 @@
       <c r="T75" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U75" s="2" t="s">
+      <c r="U75" s="3" t="s">
         <v>433</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W75" s="2" t="s">
+      <c r="W75" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X75" s="2" t="s">
+      <c r="X75" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="2" t="s">
+      <c r="Z75" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="2"/>
@@ -8507,7 +8511,7 @@
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="2" t="s">
+      <c r="R76" s="3" t="s">
         <v>437</v>
       </c>
       <c r="S76" s="3" t="s">
@@ -8516,26 +8520,26 @@
       <c r="T76" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U76" s="2" t="s">
+      <c r="U76" s="3" t="s">
         <v>439</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W76" s="2" t="s">
+      <c r="W76" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="X76" s="2" t="s">
+      <c r="X76" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y76" s="2"/>
-      <c r="Z76" s="2" t="s">
+      <c r="Z76" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="2"/>
@@ -8569,7 +8573,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2" t="s">
+      <c r="R77" s="3" t="s">
         <v>444</v>
       </c>
       <c r="S77" s="3" t="s">
@@ -8578,26 +8582,26 @@
       <c r="T77" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U77" s="2" t="s">
+      <c r="U77" s="3" t="s">
         <v>446</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="W77" s="2" t="s">
+      <c r="W77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X77" s="2" t="s">
+      <c r="X77" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y77" s="2"/>
-      <c r="Z77" s="2" t="s">
+      <c r="Z77" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C78" s="2"/>
@@ -8631,7 +8635,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2" t="s">
+      <c r="R78" s="3" t="s">
         <v>450</v>
       </c>
       <c r="S78" s="3" t="s">
@@ -8640,26 +8644,26 @@
       <c r="T78" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U78" s="2" t="s">
+      <c r="U78" s="3" t="s">
         <v>452</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="W78" s="2">
+      <c r="W78" s="3">
         <v>730115</v>
       </c>
-      <c r="X78" s="2" t="s">
+      <c r="X78" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y78" s="2"/>
-      <c r="Z78" s="2" t="s">
+      <c r="Z78" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="2"/>
@@ -8693,7 +8697,7 @@
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="2" t="s">
+      <c r="R79" s="3" t="s">
         <v>456</v>
       </c>
       <c r="S79" s="3" t="s">
@@ -8702,22 +8706,22 @@
       <c r="T79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U79" s="2" t="s">
+      <c r="U79" s="3" t="s">
         <v>458</v>
       </c>
       <c r="V79" s="2"/>
-      <c r="W79" s="2" t="s">
+      <c r="W79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X79" s="2"/>
+      <c r="X79" s="3"/>
       <c r="Y79" s="2"/>
-      <c r="Z79" s="2" t="s">
+      <c r="Z79" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="2"/>
@@ -8751,7 +8755,7 @@
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="2" t="s">
+      <c r="R80" s="3" t="s">
         <v>460</v>
       </c>
       <c r="S80" s="3" t="s">
@@ -8760,26 +8764,26 @@
       <c r="T80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U80" s="2" t="s">
+      <c r="U80" s="3" t="s">
         <v>462</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W80" s="2" t="s">
+      <c r="W80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X80" s="2" t="s">
+      <c r="X80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y80" s="2"/>
-      <c r="Z80" s="2" t="s">
+      <c r="Z80" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C81" s="2"/>
@@ -8813,7 +8817,7 @@
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="2" t="s">
+      <c r="R81" s="3" t="s">
         <v>464</v>
       </c>
       <c r="S81" s="3" t="s">
@@ -8822,26 +8826,26 @@
       <c r="T81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U81" s="2" t="s">
+      <c r="U81" s="3" t="s">
         <v>466</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W81" s="2" t="s">
+      <c r="W81" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X81" s="2" t="s">
+      <c r="X81" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y81" s="2"/>
-      <c r="Z81" s="2" t="s">
+      <c r="Z81" s="3" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="2"/>
@@ -8875,7 +8879,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="2" t="s">
+      <c r="R82" s="3" t="s">
         <v>469</v>
       </c>
       <c r="S82" s="3" t="s">
@@ -8884,26 +8888,26 @@
       <c r="T82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U82" s="2" t="s">
+      <c r="U82" s="3" t="s">
         <v>471</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W82" s="2" t="s">
+      <c r="W82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X82" s="2" t="s">
+      <c r="X82" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y82" s="2"/>
-      <c r="Z82" s="2" t="s">
+      <c r="Z82" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C83" s="2"/>
@@ -8937,7 +8941,7 @@
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2" t="s">
+      <c r="R83" s="3" t="s">
         <v>474</v>
       </c>
       <c r="S83" s="3" t="s">
@@ -8946,26 +8950,26 @@
       <c r="T83" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U83" s="2" t="s">
+      <c r="U83" s="3" t="s">
         <v>476</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="W83" s="2" t="s">
+      <c r="W83" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X83" s="2" t="s">
+      <c r="X83" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y83" s="2"/>
-      <c r="Z83" s="2" t="s">
+      <c r="Z83" s="3" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="2"/>
@@ -8993,7 +8997,7 @@
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="2" t="s">
+      <c r="R84" s="3" t="s">
         <v>479</v>
       </c>
       <c r="S84" s="3" t="s">
@@ -9002,26 +9006,26 @@
       <c r="T84" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U84" s="2" t="s">
+      <c r="U84" s="3" t="s">
         <v>481</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W84" s="2" t="s">
+      <c r="W84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X84" s="2" t="s">
+      <c r="X84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y84" s="2"/>
-      <c r="Z84" s="2" t="s">
+      <c r="Z84" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="2"/>
@@ -9055,7 +9059,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="2" t="s">
+      <c r="R85" s="3" t="s">
         <v>484</v>
       </c>
       <c r="S85" s="3" t="s">
@@ -9064,26 +9068,26 @@
       <c r="T85" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U85" s="2" t="s">
+      <c r="U85" s="3" t="s">
         <v>486</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W85" s="2" t="s">
+      <c r="W85" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="X85" s="2" t="s">
+      <c r="X85" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="2" t="s">
+      <c r="Z85" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="2"/>
@@ -9117,7 +9121,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="2" t="s">
+      <c r="R86" s="3" t="s">
         <v>489</v>
       </c>
       <c r="S86" s="3" t="s">
@@ -9126,26 +9130,26 @@
       <c r="T86" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U86" s="2" t="s">
+      <c r="U86" s="3" t="s">
         <v>491</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W86" s="2" t="s">
+      <c r="W86" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X86" s="2" t="s">
+      <c r="X86" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y86" s="2"/>
-      <c r="Z86" s="2" t="s">
+      <c r="Z86" s="3" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="2"/>
@@ -9179,7 +9183,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-      <c r="R87" s="2" t="s">
+      <c r="R87" s="3" t="s">
         <v>494</v>
       </c>
       <c r="S87" s="3" t="s">
@@ -9188,26 +9192,26 @@
       <c r="T87" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U87" s="2" t="s">
+      <c r="U87" s="3" t="s">
         <v>496</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W87" s="2" t="s">
+      <c r="W87" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X87" s="2" t="s">
+      <c r="X87" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y87" s="2"/>
-      <c r="Z87" s="2" t="s">
+      <c r="Z87" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C88" s="2"/>
@@ -9241,7 +9245,7 @@
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-      <c r="R88" s="2" t="s">
+      <c r="R88" s="3" t="s">
         <v>498</v>
       </c>
       <c r="S88" s="3" t="s">
@@ -9250,26 +9254,26 @@
       <c r="T88" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U88" s="2" t="s">
+      <c r="U88" s="3" t="s">
         <v>500</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W88" s="2" t="s">
+      <c r="W88" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X88" s="2" t="s">
+      <c r="X88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y88" s="2"/>
-      <c r="Z88" s="2" t="s">
+      <c r="Z88" s="3" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C89" s="2"/>
@@ -9303,7 +9307,7 @@
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-      <c r="R89" s="2" t="s">
+      <c r="R89" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S89" s="3" t="s">
@@ -9312,26 +9316,26 @@
       <c r="T89" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U89" s="2" t="s">
+      <c r="U89" s="3" t="s">
         <v>505</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W89" s="2" t="s">
+      <c r="W89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X89" s="2" t="s">
+      <c r="X89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y89" s="2"/>
-      <c r="Z89" s="2" t="s">
+      <c r="Z89" s="3" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="2"/>
@@ -9365,7 +9369,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-      <c r="R90" s="2" t="s">
+      <c r="R90" s="3" t="s">
         <v>508</v>
       </c>
       <c r="S90" s="3" t="s">
@@ -9374,26 +9378,26 @@
       <c r="T90" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U90" s="2" t="s">
+      <c r="U90" s="3" t="s">
         <v>510</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W90" s="2">
+      <c r="W90" s="3">
         <v>731115</v>
       </c>
-      <c r="X90" s="2" t="s">
+      <c r="X90" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y90" s="2"/>
-      <c r="Z90" s="2" t="s">
+      <c r="Z90" s="3" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C91" s="2"/>
@@ -9427,7 +9431,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-      <c r="R91" s="2" t="s">
+      <c r="R91" s="3" t="s">
         <v>513</v>
       </c>
       <c r="S91" s="3" t="s">
@@ -9436,22 +9440,22 @@
       <c r="T91" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U91" s="2" t="s">
+      <c r="U91" s="3" t="s">
         <v>515</v>
       </c>
       <c r="V91" s="2"/>
-      <c r="W91" s="2" t="s">
+      <c r="W91" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X91" s="2"/>
+      <c r="X91" s="3"/>
       <c r="Y91" s="2"/>
-      <c r="Z91" s="2" t="s">
+      <c r="Z91" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="2"/>
@@ -9485,7 +9489,7 @@
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-      <c r="R92" s="2" t="s">
+      <c r="R92" s="3" t="s">
         <v>517</v>
       </c>
       <c r="S92" s="3" t="s">
@@ -9494,26 +9498,26 @@
       <c r="T92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U92" s="2" t="s">
+      <c r="U92" s="3" t="s">
         <v>519</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W92" s="2" t="s">
+      <c r="W92" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X92" s="2" t="s">
+      <c r="X92" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y92" s="2"/>
-      <c r="Z92" s="2" t="s">
+      <c r="Z92" s="3" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C93" s="2"/>
@@ -9547,7 +9551,7 @@
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
-      <c r="R93" s="2" t="s">
+      <c r="R93" s="3" t="s">
         <v>522</v>
       </c>
       <c r="S93" s="3" t="s">
@@ -9556,26 +9560,26 @@
       <c r="T93" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U93" s="2" t="s">
+      <c r="U93" s="3" t="s">
         <v>524</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W93" s="2" t="s">
+      <c r="W93" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X93" s="2" t="s">
+      <c r="X93" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y93" s="2"/>
-      <c r="Z93" s="2" t="s">
+      <c r="Z93" s="3" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C94" s="2"/>
@@ -9603,7 +9607,7 @@
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="2" t="s">
+      <c r="R94" s="3" t="s">
         <v>527</v>
       </c>
       <c r="S94" s="3" t="s">
@@ -9612,26 +9616,26 @@
       <c r="T94" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U94" s="2" t="s">
+      <c r="U94" s="3" t="s">
         <v>529</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="W94" s="2" t="s">
+      <c r="W94" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X94" s="2" t="s">
+      <c r="X94" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y94" s="2"/>
-      <c r="Z94" s="2" t="s">
+      <c r="Z94" s="3" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="2"/>
@@ -9665,7 +9669,7 @@
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-      <c r="R95" s="2" t="s">
+      <c r="R95" s="3" t="s">
         <v>533</v>
       </c>
       <c r="S95" s="3" t="s">
@@ -9674,26 +9678,26 @@
       <c r="T95" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U95" s="2" t="s">
+      <c r="U95" s="3" t="s">
         <v>535</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W95" s="2" t="s">
+      <c r="W95" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X95" s="2" t="s">
+      <c r="X95" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y95" s="2"/>
-      <c r="Z95" s="2" t="s">
+      <c r="Z95" s="3" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C96" s="2"/>
@@ -9727,7 +9731,7 @@
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-      <c r="R96" s="2" t="s">
+      <c r="R96" s="3" t="s">
         <v>537</v>
       </c>
       <c r="S96" s="3" t="s">
@@ -9736,26 +9740,26 @@
       <c r="T96" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U96" s="2" t="s">
+      <c r="U96" s="3" t="s">
         <v>539</v>
       </c>
       <c r="V96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W96" s="2" t="s">
+      <c r="W96" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X96" s="2" t="s">
+      <c r="X96" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y96" s="2"/>
-      <c r="Z96" s="2" t="s">
+      <c r="Z96" s="3" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="2"/>
@@ -9789,7 +9793,7 @@
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
-      <c r="R97" s="2" t="s">
+      <c r="R97" s="3" t="s">
         <v>543</v>
       </c>
       <c r="S97" s="3" t="s">
@@ -9798,26 +9802,26 @@
       <c r="T97" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U97" s="2" t="s">
+      <c r="U97" s="3" t="s">
         <v>545</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W97" s="2" t="s">
+      <c r="W97" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="X97" s="2" t="s">
+      <c r="X97" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y97" s="2"/>
-      <c r="Z97" s="2" t="s">
+      <c r="Z97" s="3" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="2"/>
@@ -9851,7 +9855,7 @@
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
-      <c r="R98" s="2" t="s">
+      <c r="R98" s="3" t="s">
         <v>549</v>
       </c>
       <c r="S98" s="3" t="s">
@@ -9860,26 +9864,26 @@
       <c r="T98" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U98" s="2" t="s">
+      <c r="U98" s="3" t="s">
         <v>551</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W98" s="2" t="s">
+      <c r="W98" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X98" s="2" t="s">
+      <c r="X98" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y98" s="2"/>
-      <c r="Z98" s="2" t="s">
+      <c r="Z98" s="3" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C99" s="2"/>
@@ -9913,7 +9917,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
-      <c r="R99" s="2" t="s">
+      <c r="R99" s="3" t="s">
         <v>554</v>
       </c>
       <c r="S99" s="3" t="s">
@@ -9922,26 +9926,26 @@
       <c r="T99" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U99" s="2" t="s">
+      <c r="U99" s="3" t="s">
         <v>556</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2" t="s">
+      <c r="W99" s="3"/>
+      <c r="X99" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y99" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="Z99" s="2" t="s">
+      <c r="Z99" s="3" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C100" s="2"/>
@@ -9975,7 +9979,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
-      <c r="R100" s="2" t="s">
+      <c r="R100" s="3" t="s">
         <v>560</v>
       </c>
       <c r="S100" s="3" t="s">
@@ -9984,26 +9988,26 @@
       <c r="T100" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U100" s="2" t="s">
+      <c r="U100" s="3" t="s">
         <v>562</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W100" s="2" t="s">
+      <c r="W100" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X100" s="2" t="s">
+      <c r="X100" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y100" s="2"/>
-      <c r="Z100" s="2" t="s">
+      <c r="Z100" s="3" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C101" s="2"/>
@@ -10037,7 +10041,7 @@
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
-      <c r="R101" s="2" t="s">
+      <c r="R101" s="3" t="s">
         <v>565</v>
       </c>
       <c r="S101" s="3" t="s">
@@ -10046,26 +10050,26 @@
       <c r="T101" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U101" s="2" t="s">
+      <c r="U101" s="3" t="s">
         <v>567</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W101" s="2" t="s">
+      <c r="W101" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X101" s="2" t="s">
+      <c r="X101" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y101" s="2"/>
-      <c r="Z101" s="2" t="s">
+      <c r="Z101" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="2"/>
@@ -10099,7 +10103,7 @@
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
-      <c r="R102" s="2" t="s">
+      <c r="R102" s="3" t="s">
         <v>569</v>
       </c>
       <c r="S102" s="3" t="s">
@@ -10108,26 +10112,26 @@
       <c r="T102" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U102" s="2" t="s">
+      <c r="U102" s="3" t="s">
         <v>571</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W102" s="2" t="s">
+      <c r="W102" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X102" s="2" t="s">
+      <c r="X102" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y102" s="2"/>
-      <c r="Z102" s="2" t="s">
+      <c r="Z102" s="3" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C103" s="2"/>
@@ -10161,7 +10165,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="2" t="s">
+      <c r="R103" s="3" t="s">
         <v>574</v>
       </c>
       <c r="S103" s="3" t="s">
@@ -10170,26 +10174,26 @@
       <c r="T103" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U103" s="2" t="s">
+      <c r="U103" s="3" t="s">
         <v>576</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W103" s="2" t="s">
+      <c r="W103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X103" s="2" t="s">
+      <c r="X103" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y103" s="2"/>
-      <c r="Z103" s="2" t="s">
+      <c r="Z103" s="3" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C104" s="2"/>
@@ -10223,7 +10227,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
-      <c r="R104" s="2" t="s">
+      <c r="R104" s="3" t="s">
         <v>579</v>
       </c>
       <c r="S104" s="3" t="s">
@@ -10232,26 +10236,26 @@
       <c r="T104" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U104" s="2" t="s">
+      <c r="U104" s="3" t="s">
         <v>581</v>
       </c>
       <c r="V104" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W104" s="2" t="s">
+      <c r="W104" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X104" s="2" t="s">
+      <c r="X104" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y104" s="2"/>
-      <c r="Z104" s="2" t="s">
+      <c r="Z104" s="3" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C105" s="2"/>
@@ -10279,7 +10283,7 @@
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
-      <c r="R105" s="2" t="s">
+      <c r="R105" s="3" t="s">
         <v>584</v>
       </c>
       <c r="S105" s="3" t="s">
@@ -10288,26 +10292,26 @@
       <c r="T105" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U105" s="2" t="s">
+      <c r="U105" s="3" t="s">
         <v>586</v>
       </c>
       <c r="V105" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W105" s="2" t="s">
+      <c r="W105" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X105" s="2" t="s">
+      <c r="X105" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y105" s="2"/>
-      <c r="Z105" s="2" t="s">
+      <c r="Z105" s="3" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C106" s="2"/>
@@ -10341,7 +10345,7 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
-      <c r="R106" s="2" t="s">
+      <c r="R106" s="3" t="s">
         <v>589</v>
       </c>
       <c r="S106" s="3" t="s">
@@ -10350,28 +10354,28 @@
       <c r="T106" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U106" s="2" t="s">
+      <c r="U106" s="3" t="s">
         <v>591</v>
       </c>
       <c r="V106" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W106" s="2">
+      <c r="W106" s="3">
         <v>783133</v>
       </c>
-      <c r="X106" s="2" t="s">
+      <c r="X106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y106" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="Z106" s="2" t="s">
+      <c r="Z106" s="3" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C107" s="2"/>
@@ -10405,7 +10409,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
-      <c r="R107" s="2" t="s">
+      <c r="R107" s="3" t="s">
         <v>596</v>
       </c>
       <c r="S107" s="3" t="s">
@@ -10414,28 +10418,28 @@
       <c r="T107" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U107" s="2" t="s">
+      <c r="U107" s="3" t="s">
         <v>598</v>
       </c>
       <c r="V107" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W107" s="2" t="s">
+      <c r="W107" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="X107" s="2" t="s">
+      <c r="X107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y107" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Z107" s="2" t="s">
+      <c r="Z107" s="3" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C108" s="2"/>
@@ -10469,7 +10473,7 @@
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
-      <c r="R108" s="2" t="s">
+      <c r="R108" s="3" t="s">
         <v>602</v>
       </c>
       <c r="S108" s="3" t="s">
@@ -10478,26 +10482,26 @@
       <c r="T108" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U108" s="2" t="s">
+      <c r="U108" s="3" t="s">
         <v>604</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W108" s="2" t="s">
+      <c r="W108" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X108" s="2" t="s">
+      <c r="X108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y108" s="2"/>
-      <c r="Z108" s="2" t="s">
+      <c r="Z108" s="3" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C109" s="2"/>
@@ -10531,7 +10535,7 @@
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
-      <c r="R109" s="2" t="s">
+      <c r="R109" s="3" t="s">
         <v>607</v>
       </c>
       <c r="S109" s="3" t="s">
@@ -10540,26 +10544,26 @@
       <c r="T109" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U109" s="2" t="s">
+      <c r="U109" s="3" t="s">
         <v>609</v>
       </c>
       <c r="V109" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W109" s="2" t="s">
+      <c r="W109" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X109" s="2" t="s">
+      <c r="X109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y109" s="2"/>
-      <c r="Z109" s="2" t="s">
+      <c r="Z109" s="3" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C110" s="2"/>
@@ -10593,7 +10597,7 @@
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
-      <c r="R110" s="2" t="s">
+      <c r="R110" s="3" t="s">
         <v>611</v>
       </c>
       <c r="S110" s="3" t="s">
@@ -10602,26 +10606,26 @@
       <c r="T110" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U110" s="2" t="s">
+      <c r="U110" s="3" t="s">
         <v>613</v>
       </c>
       <c r="V110" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W110" s="2" t="s">
+      <c r="W110" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X110" s="2" t="s">
+      <c r="X110" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y110" s="2"/>
-      <c r="Z110" s="2" t="s">
+      <c r="Z110" s="3" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C111" s="2"/>
@@ -10655,7 +10659,7 @@
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
-      <c r="R111" s="2" t="s">
+      <c r="R111" s="3" t="s">
         <v>616</v>
       </c>
       <c r="S111" s="3" t="s">
@@ -10664,28 +10668,28 @@
       <c r="T111" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U111" s="2" t="s">
+      <c r="U111" s="3" t="s">
         <v>618</v>
       </c>
       <c r="V111" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="W111" s="2">
+      <c r="W111" s="3">
         <v>793133</v>
       </c>
-      <c r="X111" s="2" t="s">
+      <c r="X111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y111" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z111" s="2" t="s">
+      <c r="Z111" s="3" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C112" s="2"/>
@@ -10719,7 +10723,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
-      <c r="R112" s="2" t="s">
+      <c r="R112" s="3" t="s">
         <v>621</v>
       </c>
       <c r="S112" s="3" t="s">
@@ -10728,26 +10732,26 @@
       <c r="T112" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U112" s="2" t="s">
+      <c r="U112" s="3" t="s">
         <v>623</v>
       </c>
       <c r="V112" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W112" s="2">
+      <c r="W112" s="3">
         <v>680964</v>
       </c>
-      <c r="X112" s="2" t="s">
+      <c r="X112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y112" s="2"/>
-      <c r="Z112" s="2" t="s">
+      <c r="Z112" s="3" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C113" s="2"/>
@@ -10781,7 +10785,7 @@
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
-      <c r="R113" s="2" t="s">
+      <c r="R113" s="3" t="s">
         <v>626</v>
       </c>
       <c r="S113" s="3" t="s">
@@ -10790,26 +10794,26 @@
       <c r="T113" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U113" s="2" t="s">
+      <c r="U113" s="3" t="s">
         <v>628</v>
       </c>
       <c r="V113" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W113" s="2" t="s">
+      <c r="W113" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X113" s="2" t="s">
+      <c r="X113" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y113" s="2"/>
-      <c r="Z113" s="2" t="s">
+      <c r="Z113" s="3" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C114" s="2"/>
@@ -10843,7 +10847,7 @@
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
-      <c r="R114" s="2" t="s">
+      <c r="R114" s="3" t="s">
         <v>631</v>
       </c>
       <c r="S114" s="3" t="s">
@@ -10852,26 +10856,26 @@
       <c r="T114" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U114" s="2" t="s">
+      <c r="U114" s="3" t="s">
         <v>633</v>
       </c>
       <c r="V114" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W114" s="2" t="s">
+      <c r="W114" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X114" s="2" t="s">
+      <c r="X114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y114" s="2"/>
-      <c r="Z114" s="2" t="s">
+      <c r="Z114" s="3" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="2"/>
@@ -10905,7 +10909,7 @@
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
-      <c r="R115" s="2" t="s">
+      <c r="R115" s="3" t="s">
         <v>636</v>
       </c>
       <c r="S115" s="3" t="s">
@@ -10914,28 +10918,28 @@
       <c r="T115" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U115" s="2" t="s">
+      <c r="U115" s="3" t="s">
         <v>638</v>
       </c>
       <c r="V115" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="W115" s="2">
+      <c r="W115" s="3">
         <v>793133</v>
       </c>
-      <c r="X115" s="2" t="s">
+      <c r="X115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y115" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z115" s="2" t="s">
+      <c r="Z115" s="3" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C116" s="2"/>
@@ -10969,7 +10973,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
-      <c r="R116" s="2" t="s">
+      <c r="R116" s="3" t="s">
         <v>642</v>
       </c>
       <c r="S116" s="3" t="s">
@@ -10978,26 +10982,26 @@
       <c r="T116" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U116" s="2" t="s">
+      <c r="U116" s="3" t="s">
         <v>644</v>
       </c>
       <c r="V116" s="2"/>
-      <c r="W116" s="2">
+      <c r="W116" s="3">
         <v>173133</v>
       </c>
-      <c r="X116" s="2" t="s">
+      <c r="X116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y116" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="Z116" s="2" t="s">
+      <c r="Z116" s="3" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="2"/>
@@ -11031,7 +11035,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
-      <c r="R117" s="2" t="s">
+      <c r="R117" s="3" t="s">
         <v>648</v>
       </c>
       <c r="S117" s="3" t="s">
@@ -11040,26 +11044,26 @@
       <c r="T117" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U117" s="2" t="s">
+      <c r="U117" s="3" t="s">
         <v>650</v>
       </c>
       <c r="V117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W117" s="2" t="s">
+      <c r="W117" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X117" s="2" t="s">
+      <c r="X117" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y117" s="2"/>
-      <c r="Z117" s="2" t="s">
+      <c r="Z117" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C118" s="2"/>
@@ -11093,7 +11097,7 @@
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
-      <c r="R118" s="2" t="s">
+      <c r="R118" s="3" t="s">
         <v>653</v>
       </c>
       <c r="S118" s="3" t="s">
@@ -11102,26 +11106,26 @@
       <c r="T118" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U118" s="2" t="s">
+      <c r="U118" s="3" t="s">
         <v>655</v>
       </c>
       <c r="V118" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W118" s="2" t="s">
+      <c r="W118" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X118" s="2" t="s">
+      <c r="X118" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y118" s="2"/>
-      <c r="Z118" s="2" t="s">
+      <c r="Z118" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C119" s="2"/>
@@ -11155,7 +11159,7 @@
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
-      <c r="R119" s="2" t="s">
+      <c r="R119" s="3" t="s">
         <v>657</v>
       </c>
       <c r="S119" s="3" t="s">
@@ -11164,26 +11168,26 @@
       <c r="T119" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U119" s="2" t="s">
+      <c r="U119" s="3" t="s">
         <v>659</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W119" s="2" t="s">
+      <c r="W119" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X119" s="2" t="s">
+      <c r="X119" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y119" s="2"/>
-      <c r="Z119" s="2" t="s">
+      <c r="Z119" s="3" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C120" s="2"/>
@@ -11217,7 +11221,7 @@
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
-      <c r="R120" s="2" t="s">
+      <c r="R120" s="3" t="s">
         <v>662</v>
       </c>
       <c r="S120" s="3" t="s">
@@ -11226,26 +11230,26 @@
       <c r="T120" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U120" s="2" t="s">
+      <c r="U120" s="3" t="s">
         <v>664</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="2" t="s">
+      <c r="W120" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X120" s="2" t="s">
+      <c r="X120" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y120" s="2"/>
-      <c r="Z120" s="2" t="s">
+      <c r="Z120" s="3" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C121" s="2"/>
@@ -11279,7 +11283,7 @@
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
-      <c r="R121" s="2" t="s">
+      <c r="R121" s="3" t="s">
         <v>667</v>
       </c>
       <c r="S121" s="3" t="s">
@@ -11288,26 +11292,26 @@
       <c r="T121" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U121" s="2" t="s">
+      <c r="U121" s="3" t="s">
         <v>669</v>
       </c>
       <c r="V121" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W121" s="2" t="s">
+      <c r="W121" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X121" s="2" t="s">
+      <c r="X121" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y121" s="2"/>
-      <c r="Z121" s="2" t="s">
+      <c r="Z121" s="3" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C122" s="2"/>
@@ -11341,7 +11345,7 @@
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
-      <c r="R122" s="2" t="s">
+      <c r="R122" s="3" t="s">
         <v>672</v>
       </c>
       <c r="S122" s="3" t="s">
@@ -11350,26 +11354,26 @@
       <c r="T122" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U122" s="2" t="s">
+      <c r="U122" s="3" t="s">
         <v>674</v>
       </c>
       <c r="V122" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W122" s="2" t="s">
+      <c r="W122" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X122" s="2" t="s">
+      <c r="X122" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y122" s="2"/>
-      <c r="Z122" s="2" t="s">
+      <c r="Z122" s="3" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C123" s="2"/>
@@ -11403,7 +11407,7 @@
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
-      <c r="R123" s="2" t="s">
+      <c r="R123" s="3" t="s">
         <v>677</v>
       </c>
       <c r="S123" s="3" t="s">
@@ -11412,26 +11416,26 @@
       <c r="T123" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U123" s="2" t="s">
+      <c r="U123" s="3" t="s">
         <v>679</v>
       </c>
       <c r="V123" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W123" s="2" t="s">
+      <c r="W123" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X123" s="2" t="s">
+      <c r="X123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y123" s="2"/>
-      <c r="Z123" s="2" t="s">
+      <c r="Z123" s="3" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C124" s="2"/>
@@ -11465,7 +11469,7 @@
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
-      <c r="R124" s="2" t="s">
+      <c r="R124" s="3" t="s">
         <v>178</v>
       </c>
       <c r="S124" s="3" t="s">
@@ -11474,26 +11478,26 @@
       <c r="T124" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U124" s="2" t="s">
+      <c r="U124" s="3" t="s">
         <v>681</v>
       </c>
       <c r="V124" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W124" s="2" t="s">
+      <c r="W124" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X124" s="2" t="s">
+      <c r="X124" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y124" s="2"/>
-      <c r="Z124" s="2" t="s">
+      <c r="Z124" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C125" s="2"/>
@@ -11527,7 +11531,7 @@
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
-      <c r="R125" s="2" t="s">
+      <c r="R125" s="3" t="s">
         <v>683</v>
       </c>
       <c r="S125" s="3" t="s">
@@ -11536,28 +11540,28 @@
       <c r="T125" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U125" s="2" t="s">
+      <c r="U125" s="3" t="s">
         <v>685</v>
       </c>
       <c r="V125" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W125" s="2" t="s">
+      <c r="W125" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="X125" s="2" t="s">
+      <c r="X125" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y125" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Z125" s="2" t="s">
+      <c r="Z125" s="3" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C126" s="2"/>
@@ -11591,7 +11595,7 @@
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
-      <c r="R126" s="2" t="s">
+      <c r="R126" s="3" t="s">
         <v>688</v>
       </c>
       <c r="S126" s="3" t="s">
@@ -11600,28 +11604,28 @@
       <c r="T126" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U126" s="2" t="s">
+      <c r="U126" s="3" t="s">
         <v>690</v>
       </c>
       <c r="V126" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W126" s="2" t="s">
+      <c r="W126" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X126" s="2" t="s">
+      <c r="X126" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z126" s="2" t="s">
+      <c r="Z126" s="3" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C127" s="2"/>
@@ -11655,7 +11659,7 @@
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
-      <c r="R127" s="2" t="s">
+      <c r="R127" s="3" t="s">
         <v>693</v>
       </c>
       <c r="S127" s="3" t="s">
@@ -11664,26 +11668,26 @@
       <c r="T127" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U127" s="2" t="s">
+      <c r="U127" s="3" t="s">
         <v>695</v>
       </c>
       <c r="V127" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W127" s="2" t="s">
+      <c r="W127" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X127" s="2" t="s">
+      <c r="X127" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y127" s="2"/>
-      <c r="Z127" s="2" t="s">
+      <c r="Z127" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C128" s="2"/>
@@ -11711,7 +11715,7 @@
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
-      <c r="R128" s="2" t="s">
+      <c r="R128" s="3" t="s">
         <v>698</v>
       </c>
       <c r="S128" s="3" t="s">
@@ -11720,26 +11724,26 @@
       <c r="T128" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U128" s="2" t="s">
+      <c r="U128" s="3" t="s">
         <v>700</v>
       </c>
       <c r="V128" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W128" s="2">
+      <c r="W128" s="3">
         <v>673096</v>
       </c>
-      <c r="X128" s="2" t="s">
+      <c r="X128" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y128" s="2"/>
-      <c r="Z128" s="2" t="s">
+      <c r="Z128" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="2"/>
@@ -11773,7 +11777,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
-      <c r="R129" s="2" t="s">
+      <c r="R129" s="3" t="s">
         <v>702</v>
       </c>
       <c r="S129" s="3" t="s">
@@ -11782,26 +11786,26 @@
       <c r="T129" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U129" s="2" t="s">
+      <c r="U129" s="3" t="s">
         <v>704</v>
       </c>
       <c r="V129" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W129" s="2" t="s">
+      <c r="W129" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X129" s="2" t="s">
+      <c r="X129" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y129" s="2"/>
-      <c r="Z129" s="2" t="s">
+      <c r="Z129" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C130" s="2"/>
@@ -11835,7 +11839,7 @@
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
-      <c r="R130" s="2" t="s">
+      <c r="R130" s="3" t="s">
         <v>707</v>
       </c>
       <c r="S130" s="3" t="s">
@@ -11844,26 +11848,26 @@
       <c r="T130" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U130" s="2" t="s">
+      <c r="U130" s="3" t="s">
         <v>709</v>
       </c>
       <c r="V130" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W130" s="2" t="s">
+      <c r="W130" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X130" s="2" t="s">
+      <c r="X130" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y130" s="2"/>
-      <c r="Z130" s="2" t="s">
+      <c r="Z130" s="3" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C131" s="2"/>
@@ -11897,7 +11901,7 @@
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
-      <c r="R131" s="2" t="s">
+      <c r="R131" s="3" t="s">
         <v>713</v>
       </c>
       <c r="S131" s="3" t="s">
@@ -11906,26 +11910,26 @@
       <c r="T131" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U131" s="2" t="s">
+      <c r="U131" s="3" t="s">
         <v>715</v>
       </c>
       <c r="V131" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W131" s="2">
+      <c r="W131" s="3">
         <v>682963</v>
       </c>
-      <c r="X131" s="2" t="s">
+      <c r="X131" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y131" s="2"/>
-      <c r="Z131" s="2" t="s">
+      <c r="Z131" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C132" s="2"/>
@@ -11959,7 +11963,7 @@
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
-      <c r="R132" s="2" t="s">
+      <c r="R132" s="3" t="s">
         <v>717</v>
       </c>
       <c r="S132" s="3" t="s">
@@ -11968,26 +11972,26 @@
       <c r="T132" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U132" s="2" t="s">
+      <c r="U132" s="3" t="s">
         <v>719</v>
       </c>
       <c r="V132" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W132" s="2" t="s">
+      <c r="W132" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X132" s="2" t="s">
+      <c r="X132" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y132" s="2"/>
-      <c r="Z132" s="2" t="s">
+      <c r="Z132" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C133" s="2"/>
@@ -12021,7 +12025,7 @@
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
-      <c r="R133" s="2" t="s">
+      <c r="R133" s="3" t="s">
         <v>722</v>
       </c>
       <c r="S133" s="3" t="s">
@@ -12030,26 +12034,26 @@
       <c r="T133" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U133" s="2" t="s">
+      <c r="U133" s="3" t="s">
         <v>724</v>
       </c>
       <c r="V133" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W133" s="2" t="s">
+      <c r="W133" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="X133" s="2" t="s">
+      <c r="X133" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y133" s="2"/>
-      <c r="Z133" s="2" t="s">
+      <c r="Z133" s="3" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C134" s="2"/>
@@ -12083,7 +12087,7 @@
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
-      <c r="R134" s="2" t="s">
+      <c r="R134" s="3" t="s">
         <v>728</v>
       </c>
       <c r="S134" s="3" t="s">
@@ -12092,26 +12096,26 @@
       <c r="T134" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U134" s="2" t="s">
+      <c r="U134" s="3" t="s">
         <v>730</v>
       </c>
       <c r="V134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W134" s="2" t="s">
+      <c r="W134" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X134" s="2" t="s">
+      <c r="X134" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y134" s="2"/>
-      <c r="Z134" s="2" t="s">
+      <c r="Z134" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C135" s="2"/>
@@ -12145,7 +12149,7 @@
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
-      <c r="R135" s="2" t="s">
+      <c r="R135" s="3" t="s">
         <v>733</v>
       </c>
       <c r="S135" s="3" t="s">
@@ -12154,28 +12158,28 @@
       <c r="T135" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U135" s="2" t="s">
+      <c r="U135" s="3" t="s">
         <v>735</v>
       </c>
       <c r="V135" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W135" s="2" t="s">
+      <c r="W135" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X135" s="2" t="s">
+      <c r="X135" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y135" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z135" s="2" t="s">
+      <c r="Z135" s="3" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="2"/>
@@ -12209,7 +12213,7 @@
       </c>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
-      <c r="R136" s="2" t="s">
+      <c r="R136" s="3" t="s">
         <v>738</v>
       </c>
       <c r="S136" s="3" t="s">
@@ -12218,26 +12222,26 @@
       <c r="T136" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U136" s="2" t="s">
+      <c r="U136" s="3" t="s">
         <v>740</v>
       </c>
       <c r="V136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W136" s="2" t="s">
+      <c r="W136" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="X136" s="2" t="s">
+      <c r="X136" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y136" s="2"/>
-      <c r="Z136" s="2" t="s">
+      <c r="Z136" s="3" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="2"/>
@@ -12271,7 +12275,7 @@
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
-      <c r="R137" s="2" t="s">
+      <c r="R137" s="3" t="s">
         <v>744</v>
       </c>
       <c r="S137" s="3" t="s">
@@ -12280,26 +12284,26 @@
       <c r="T137" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U137" s="2" t="s">
+      <c r="U137" s="3" t="s">
         <v>746</v>
       </c>
       <c r="V137" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W137" s="2" t="s">
+      <c r="W137" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X137" s="2" t="s">
+      <c r="X137" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y137" s="2"/>
-      <c r="Z137" s="2" t="s">
+      <c r="Z137" s="3" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C138" s="2"/>
@@ -12333,7 +12337,7 @@
       </c>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
-      <c r="R138" s="2" t="s">
+      <c r="R138" s="3" t="s">
         <v>749</v>
       </c>
       <c r="S138" s="3" t="s">
@@ -12342,26 +12346,26 @@
       <c r="T138" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U138" s="2" t="s">
+      <c r="U138" s="3" t="s">
         <v>751</v>
       </c>
       <c r="V138" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W138" s="2" t="s">
+      <c r="W138" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X138" s="2" t="s">
+      <c r="X138" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y138" s="2"/>
-      <c r="Z138" s="2" t="s">
+      <c r="Z138" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C139" s="2"/>
@@ -12395,7 +12399,7 @@
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
-      <c r="R139" s="2" t="s">
+      <c r="R139" s="3" t="s">
         <v>753</v>
       </c>
       <c r="S139" s="3" t="s">
@@ -12404,26 +12408,26 @@
       <c r="T139" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U139" s="2" t="s">
+      <c r="U139" s="3" t="s">
         <v>755</v>
       </c>
       <c r="V139" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W139" s="2" t="s">
+      <c r="W139" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X139" s="2" t="s">
+      <c r="X139" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y139" s="2"/>
-      <c r="Z139" s="2" t="s">
+      <c r="Z139" s="3" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C140" s="2"/>
@@ -12457,7 +12461,7 @@
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
-      <c r="R140" s="2" t="s">
+      <c r="R140" s="3" t="s">
         <v>758</v>
       </c>
       <c r="S140" s="3" t="s">
@@ -12466,26 +12470,26 @@
       <c r="T140" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U140" s="2" t="s">
+      <c r="U140" s="3" t="s">
         <v>760</v>
       </c>
       <c r="V140" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W140" s="2">
+      <c r="W140" s="3">
         <v>730115</v>
       </c>
-      <c r="X140" s="2" t="s">
+      <c r="X140" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y140" s="2"/>
-      <c r="Z140" s="2" t="s">
+      <c r="Z140" s="3" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C141" s="2"/>
@@ -12519,7 +12523,7 @@
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
-      <c r="R141" s="2" t="s">
+      <c r="R141" s="3" t="s">
         <v>763</v>
       </c>
       <c r="S141" s="3" t="s">
@@ -12528,26 +12532,26 @@
       <c r="T141" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U141" s="2" t="s">
+      <c r="U141" s="3" t="s">
         <v>765</v>
       </c>
       <c r="V141" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W141" s="2" t="s">
+      <c r="W141" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="X141" s="2" t="s">
+      <c r="X141" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y141" s="2"/>
-      <c r="Z141" s="2" t="s">
+      <c r="Z141" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C142" s="2"/>
@@ -12581,7 +12585,7 @@
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
-      <c r="R142" s="2" t="s">
+      <c r="R142" s="3" t="s">
         <v>768</v>
       </c>
       <c r="S142" s="3" t="s">
@@ -12590,26 +12594,26 @@
       <c r="T142" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U142" s="2" t="s">
+      <c r="U142" s="3" t="s">
         <v>770</v>
       </c>
       <c r="V142" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W142" s="2" t="s">
+      <c r="W142" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X142" s="2" t="s">
+      <c r="X142" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y142" s="2"/>
-      <c r="Z142" s="2" t="s">
+      <c r="Z142" s="3" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C143" s="2"/>
@@ -12643,7 +12647,7 @@
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
-      <c r="R143" s="2" t="s">
+      <c r="R143" s="3" t="s">
         <v>773</v>
       </c>
       <c r="S143" s="3" t="s">
@@ -12652,26 +12656,26 @@
       <c r="T143" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U143" s="2" t="s">
+      <c r="U143" s="3" t="s">
         <v>775</v>
       </c>
       <c r="V143" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W143" s="2" t="s">
+      <c r="W143" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X143" s="2" t="s">
+      <c r="X143" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y143" s="2"/>
-      <c r="Z143" s="2" t="s">
+      <c r="Z143" s="3" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C144" s="2"/>
@@ -12705,7 +12709,7 @@
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
-      <c r="R144" s="2" t="s">
+      <c r="R144" s="3" t="s">
         <v>777</v>
       </c>
       <c r="S144" s="3" t="s">
@@ -12714,26 +12718,26 @@
       <c r="T144" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U144" s="2" t="s">
+      <c r="U144" s="3" t="s">
         <v>779</v>
       </c>
       <c r="V144" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W144" s="2" t="s">
+      <c r="W144" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X144" s="2" t="s">
+      <c r="X144" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y144" s="2"/>
-      <c r="Z144" s="2" t="s">
+      <c r="Z144" s="3" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C145" s="2"/>
@@ -12767,7 +12771,7 @@
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
-      <c r="R145" s="2" t="s">
+      <c r="R145" s="3" t="s">
         <v>782</v>
       </c>
       <c r="S145" s="3" t="s">
@@ -12776,26 +12780,26 @@
       <c r="T145" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U145" s="2" t="s">
+      <c r="U145" s="3" t="s">
         <v>784</v>
       </c>
       <c r="V145" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W145" s="2" t="s">
+      <c r="W145" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X145" s="2" t="s">
+      <c r="X145" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y145" s="2"/>
-      <c r="Z145" s="2" t="s">
+      <c r="Z145" s="3" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C146" s="2"/>
@@ -12829,7 +12833,7 @@
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
-      <c r="R146" s="2" t="s">
+      <c r="R146" s="3" t="s">
         <v>787</v>
       </c>
       <c r="S146" s="3" t="s">
@@ -12838,26 +12842,26 @@
       <c r="T146" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U146" s="2" t="s">
+      <c r="U146" s="3" t="s">
         <v>789</v>
       </c>
       <c r="V146" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W146" s="2" t="s">
+      <c r="W146" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X146" s="2" t="s">
+      <c r="X146" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y146" s="2"/>
-      <c r="Z146" s="2" t="s">
+      <c r="Z146" s="3" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C147" s="2"/>
@@ -12891,29 +12895,29 @@
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
-      <c r="R147" s="2" t="s">
+      <c r="R147" s="3" t="s">
         <v>792</v>
       </c>
       <c r="S147" s="3" t="s">
         <v>793</v>
       </c>
       <c r="T147" s="3"/>
-      <c r="U147" s="2" t="s">
+      <c r="U147" s="3" t="s">
         <v>794</v>
       </c>
       <c r="V147" s="2"/>
-      <c r="W147" s="2" t="s">
+      <c r="W147" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X147" s="2"/>
+      <c r="X147" s="3"/>
       <c r="Y147" s="2"/>
-      <c r="Z147" s="2" t="s">
+      <c r="Z147" s="3" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="2"/>
@@ -12947,7 +12951,7 @@
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
-      <c r="R148" s="2" t="s">
+      <c r="R148" s="3" t="s">
         <v>797</v>
       </c>
       <c r="S148" s="3" t="s">
@@ -12956,26 +12960,26 @@
       <c r="T148" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U148" s="2" t="s">
+      <c r="U148" s="3" t="s">
         <v>799</v>
       </c>
       <c r="V148" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W148" s="2" t="s">
+      <c r="W148" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X148" s="2" t="s">
+      <c r="X148" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y148" s="2"/>
-      <c r="Z148" s="2" t="s">
+      <c r="Z148" s="3" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C149" s="2"/>
@@ -13009,7 +13013,7 @@
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
-      <c r="R149" s="2" t="s">
+      <c r="R149" s="3" t="s">
         <v>802</v>
       </c>
       <c r="S149" s="3" t="s">
@@ -13018,26 +13022,26 @@
       <c r="T149" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U149" s="2" t="s">
+      <c r="U149" s="3" t="s">
         <v>804</v>
       </c>
       <c r="V149" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W149" s="2" t="s">
+      <c r="W149" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X149" s="2" t="s">
+      <c r="X149" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y149" s="2"/>
-      <c r="Z149" s="2" t="s">
+      <c r="Z149" s="3" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C150" s="2"/>
@@ -13071,7 +13075,7 @@
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
-      <c r="R150" s="2" t="s">
+      <c r="R150" s="3" t="s">
         <v>807</v>
       </c>
       <c r="S150" s="3" t="s">
@@ -13080,26 +13084,26 @@
       <c r="T150" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U150" s="2" t="s">
+      <c r="U150" s="3" t="s">
         <v>809</v>
       </c>
       <c r="V150" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W150" s="2" t="s">
+      <c r="W150" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X150" s="2" t="s">
+      <c r="X150" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y150" s="2"/>
-      <c r="Z150" s="2" t="s">
+      <c r="Z150" s="3" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C151" s="2"/>
@@ -13133,7 +13137,7 @@
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
-      <c r="R151" s="2" t="s">
+      <c r="R151" s="3" t="s">
         <v>812</v>
       </c>
       <c r="S151" s="3" t="s">
@@ -13142,26 +13146,26 @@
       <c r="T151" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U151" s="2" t="s">
+      <c r="U151" s="3" t="s">
         <v>814</v>
       </c>
       <c r="V151" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W151" s="2" t="s">
+      <c r="W151" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X151" s="2" t="s">
+      <c r="X151" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y151" s="2"/>
-      <c r="Z151" s="2" t="s">
+      <c r="Z151" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C152" s="2"/>
@@ -13195,7 +13199,7 @@
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
-      <c r="R152" s="2" t="s">
+      <c r="R152" s="3" t="s">
         <v>816</v>
       </c>
       <c r="S152" s="3" t="s">
@@ -13204,26 +13208,26 @@
       <c r="T152" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U152" s="2" t="s">
+      <c r="U152" s="3" t="s">
         <v>818</v>
       </c>
       <c r="V152" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="W152" s="2" t="s">
+      <c r="W152" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X152" s="2" t="s">
+      <c r="X152" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y152" s="2"/>
-      <c r="Z152" s="2" t="s">
+      <c r="Z152" s="3" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C153" s="2"/>
@@ -13257,7 +13261,7 @@
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
-      <c r="R153" s="2" t="s">
+      <c r="R153" s="3" t="s">
         <v>821</v>
       </c>
       <c r="S153" s="3" t="s">
@@ -13266,26 +13270,26 @@
       <c r="T153" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U153" s="2" t="s">
+      <c r="U153" s="3" t="s">
         <v>823</v>
       </c>
       <c r="V153" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W153" s="2" t="s">
+      <c r="W153" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X153" s="2" t="s">
+      <c r="X153" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y153" s="2"/>
-      <c r="Z153" s="2" t="s">
+      <c r="Z153" s="3" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C154" s="2"/>
@@ -13319,33 +13323,33 @@
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
-      <c r="R154" s="2" t="s">
+      <c r="R154" s="3" t="s">
         <v>826</v>
       </c>
       <c r="S154" s="3" t="s">
         <v>827</v>
       </c>
       <c r="T154" s="3"/>
-      <c r="U154" s="2" t="s">
+      <c r="U154" s="3" t="s">
         <v>828</v>
       </c>
       <c r="V154" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W154" s="2" t="s">
+      <c r="W154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X154" s="2" t="s">
+      <c r="X154" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y154" s="2"/>
-      <c r="Z154" s="2" t="s">
+      <c r="Z154" s="3" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="2"/>
@@ -13379,7 +13383,7 @@
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
-      <c r="R155" s="2" t="s">
+      <c r="R155" s="3" t="s">
         <v>831</v>
       </c>
       <c r="S155" s="3" t="s">
@@ -13388,26 +13392,26 @@
       <c r="T155" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U155" s="2" t="s">
+      <c r="U155" s="3" t="s">
         <v>833</v>
       </c>
       <c r="V155" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W155" s="2" t="s">
+      <c r="W155" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="X155" s="2" t="s">
+      <c r="X155" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y155" s="2"/>
-      <c r="Z155" s="2" t="s">
+      <c r="Z155" s="3" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C156" s="2"/>
@@ -13441,7 +13445,7 @@
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
-      <c r="R156" s="2" t="s">
+      <c r="R156" s="3" t="s">
         <v>837</v>
       </c>
       <c r="S156" s="3" t="s">
@@ -13450,26 +13454,26 @@
       <c r="T156" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U156" s="2" t="s">
+      <c r="U156" s="3" t="s">
         <v>839</v>
       </c>
       <c r="V156" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W156" s="2" t="s">
+      <c r="W156" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X156" s="2" t="s">
+      <c r="X156" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y156" s="2"/>
-      <c r="Z156" s="2" t="s">
+      <c r="Z156" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C157" s="2"/>
@@ -13503,7 +13507,7 @@
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
-      <c r="R157" s="2" t="s">
+      <c r="R157" s="3" t="s">
         <v>841</v>
       </c>
       <c r="S157" s="3" t="s">
@@ -13512,24 +13516,24 @@
       <c r="T157" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U157" s="2" t="s">
+      <c r="U157" s="3" t="s">
         <v>843</v>
       </c>
       <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2" t="s">
+      <c r="W157" s="3"/>
+      <c r="X157" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y157" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="Z157" s="2" t="s">
+      <c r="Z157" s="3" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C158" s="2"/>
@@ -13563,7 +13567,7 @@
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
-      <c r="R158" s="2" t="s">
+      <c r="R158" s="3" t="s">
         <v>847</v>
       </c>
       <c r="S158" s="3" t="s">
@@ -13572,26 +13576,26 @@
       <c r="T158" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U158" s="2" t="s">
+      <c r="U158" s="3" t="s">
         <v>849</v>
       </c>
       <c r="V158" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W158" s="2" t="s">
+      <c r="W158" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X158" s="2" t="s">
+      <c r="X158" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y158" s="2"/>
-      <c r="Z158" s="2" t="s">
+      <c r="Z158" s="3" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C159" s="2"/>
@@ -13619,7 +13623,7 @@
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
-      <c r="R159" s="2" t="s">
+      <c r="R159" s="3" t="s">
         <v>852</v>
       </c>
       <c r="S159" s="3" t="s">
@@ -13628,26 +13632,26 @@
       <c r="T159" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U159" s="2" t="s">
+      <c r="U159" s="3" t="s">
         <v>854</v>
       </c>
       <c r="V159" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W159" s="2" t="s">
+      <c r="W159" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X159" s="2" t="s">
+      <c r="X159" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y159" s="2"/>
-      <c r="Z159" s="2" t="s">
+      <c r="Z159" s="3" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C160" s="2"/>
@@ -13681,7 +13685,7 @@
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
-      <c r="R160" s="2" t="s">
+      <c r="R160" s="3" t="s">
         <v>96</v>
       </c>
       <c r="S160" s="3" t="s">
@@ -13690,26 +13694,26 @@
       <c r="T160" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U160" s="2" t="s">
+      <c r="U160" s="3" t="s">
         <v>857</v>
       </c>
       <c r="V160" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W160" s="2" t="s">
+      <c r="W160" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X160" s="2" t="s">
+      <c r="X160" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y160" s="2"/>
-      <c r="Z160" s="2" t="s">
+      <c r="Z160" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C161" s="2"/>
@@ -13743,7 +13747,7 @@
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
-      <c r="R161" s="2" t="s">
+      <c r="R161" s="3" t="s">
         <v>859</v>
       </c>
       <c r="S161" s="3" t="s">
@@ -13752,26 +13756,26 @@
       <c r="T161" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U161" s="2" t="s">
+      <c r="U161" s="3" t="s">
         <v>861</v>
       </c>
       <c r="V161" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W161" s="2" t="s">
+      <c r="W161" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X161" s="2" t="s">
+      <c r="X161" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y161" s="2"/>
-      <c r="Z161" s="2" t="s">
+      <c r="Z161" s="3" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C162" s="2"/>
@@ -13805,7 +13809,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
-      <c r="R162" s="2" t="s">
+      <c r="R162" s="3" t="s">
         <v>864</v>
       </c>
       <c r="S162" s="3" t="s">
@@ -13814,26 +13818,26 @@
       <c r="T162" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U162" s="2" t="s">
+      <c r="U162" s="3" t="s">
         <v>866</v>
       </c>
       <c r="V162" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="W162" s="2" t="s">
+      <c r="W162" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="X162" s="2" t="s">
+      <c r="X162" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y162" s="2"/>
-      <c r="Z162" s="2" t="s">
+      <c r="Z162" s="3" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C163" s="2"/>
@@ -13867,7 +13871,7 @@
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
-      <c r="R163" s="2" t="s">
+      <c r="R163" s="3" t="s">
         <v>870</v>
       </c>
       <c r="S163" s="3" t="s">
@@ -13876,24 +13880,24 @@
       <c r="T163" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U163" s="2" t="s">
+      <c r="U163" s="3" t="s">
         <v>872</v>
       </c>
       <c r="V163" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W163" s="2" t="s">
+      <c r="W163" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X163" s="2"/>
+      <c r="X163" s="3"/>
       <c r="Y163" s="2"/>
-      <c r="Z163" s="2" t="s">
+      <c r="Z163" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C164" s="2"/>
@@ -13927,7 +13931,7 @@
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
-      <c r="R164" s="2" t="s">
+      <c r="R164" s="3" t="s">
         <v>874</v>
       </c>
       <c r="S164" s="3" t="s">
@@ -13936,22 +13940,22 @@
       <c r="T164" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U164" s="2" t="s">
+      <c r="U164" s="3" t="s">
         <v>876</v>
       </c>
       <c r="V164" s="2"/>
-      <c r="W164" s="2" t="s">
+      <c r="W164" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X164" s="2"/>
+      <c r="X164" s="3"/>
       <c r="Y164" s="2"/>
-      <c r="Z164" s="2" t="s">
+      <c r="Z164" s="3" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C165" s="2"/>
@@ -13985,7 +13989,7 @@
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
-      <c r="R165" s="2" t="s">
+      <c r="R165" s="3" t="s">
         <v>879</v>
       </c>
       <c r="S165" s="3" t="s">
@@ -13994,26 +13998,26 @@
       <c r="T165" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U165" s="2" t="s">
+      <c r="U165" s="3" t="s">
         <v>881</v>
       </c>
       <c r="V165" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W165" s="2" t="s">
+      <c r="W165" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X165" s="2" t="s">
+      <c r="X165" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y165" s="2"/>
-      <c r="Z165" s="2" t="s">
+      <c r="Z165" s="3" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C166" s="2"/>
@@ -14047,7 +14051,7 @@
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
-      <c r="R166" s="2" t="s">
+      <c r="R166" s="3" t="s">
         <v>883</v>
       </c>
       <c r="S166" s="3" t="s">
@@ -14056,26 +14060,26 @@
       <c r="T166" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U166" s="2" t="s">
+      <c r="U166" s="3" t="s">
         <v>885</v>
       </c>
       <c r="V166" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W166" s="2" t="s">
+      <c r="W166" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X166" s="2" t="s">
+      <c r="X166" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y166" s="2"/>
-      <c r="Z166" s="2" t="s">
+      <c r="Z166" s="3" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C167" s="2"/>
@@ -14109,7 +14113,7 @@
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
-      <c r="R167" s="2" t="s">
+      <c r="R167" s="3" t="s">
         <v>888</v>
       </c>
       <c r="S167" s="3" t="s">
@@ -14118,28 +14122,28 @@
       <c r="T167" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U167" s="2" t="s">
+      <c r="U167" s="3" t="s">
         <v>890</v>
       </c>
       <c r="V167" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W167" s="2" t="s">
+      <c r="W167" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="X167" s="2" t="s">
+      <c r="X167" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y167" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="Z167" s="2" t="s">
+      <c r="Z167" s="3" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C168" s="2"/>
@@ -14173,7 +14177,7 @@
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
-      <c r="R168" s="2" t="s">
+      <c r="R168" s="3" t="s">
         <v>894</v>
       </c>
       <c r="S168" s="3" t="s">
@@ -14182,26 +14186,26 @@
       <c r="T168" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U168" s="2" t="s">
+      <c r="U168" s="3" t="s">
         <v>896</v>
       </c>
       <c r="V168" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W168" s="2" t="s">
+      <c r="W168" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X168" s="2" t="s">
+      <c r="X168" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y168" s="2"/>
-      <c r="Z168" s="2" t="s">
+      <c r="Z168" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C169" s="2"/>
@@ -14235,7 +14239,7 @@
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
-      <c r="R169" s="2" t="s">
+      <c r="R169" s="3" t="s">
         <v>898</v>
       </c>
       <c r="S169" s="3" t="s">
@@ -14244,24 +14248,24 @@
       <c r="T169" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U169" s="2" t="s">
+      <c r="U169" s="3" t="s">
         <v>900</v>
       </c>
       <c r="V169" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W169" s="2"/>
-      <c r="X169" s="2" t="s">
+      <c r="W169" s="3"/>
+      <c r="X169" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y169" s="2"/>
-      <c r="Z169" s="2" t="s">
+      <c r="Z169" s="3" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C170" s="2"/>
@@ -14295,7 +14299,7 @@
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
-      <c r="R170" s="2" t="s">
+      <c r="R170" s="3" t="s">
         <v>903</v>
       </c>
       <c r="S170" s="3" t="s">
@@ -14304,26 +14308,26 @@
       <c r="T170" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U170" s="2" t="s">
+      <c r="U170" s="3" t="s">
         <v>905</v>
       </c>
       <c r="V170" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W170" s="2" t="s">
+      <c r="W170" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X170" s="2" t="s">
+      <c r="X170" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y170" s="2"/>
-      <c r="Z170" s="2" t="s">
+      <c r="Z170" s="3" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C171" s="2"/>
@@ -14357,7 +14361,7 @@
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
-      <c r="R171" s="2" t="s">
+      <c r="R171" s="3" t="s">
         <v>908</v>
       </c>
       <c r="S171" s="3" t="s">
@@ -14366,26 +14370,26 @@
       <c r="T171" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U171" s="2" t="s">
+      <c r="U171" s="3" t="s">
         <v>910</v>
       </c>
       <c r="V171" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W171" s="2" t="s">
+      <c r="W171" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X171" s="2" t="s">
+      <c r="X171" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y171" s="2"/>
-      <c r="Z171" s="2" t="s">
+      <c r="Z171" s="3" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C172" s="2"/>
@@ -14419,7 +14423,7 @@
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
-      <c r="R172" s="2" t="s">
+      <c r="R172" s="3" t="s">
         <v>913</v>
       </c>
       <c r="S172" s="3" t="s">
@@ -14428,28 +14432,28 @@
       <c r="T172" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U172" s="2" t="s">
+      <c r="U172" s="3" t="s">
         <v>915</v>
       </c>
       <c r="V172" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W172" s="2" t="s">
+      <c r="W172" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X172" s="2" t="s">
+      <c r="X172" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y172" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z172" s="2" t="s">
+      <c r="Z172" s="3" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C173" s="2"/>
@@ -14483,7 +14487,7 @@
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
-      <c r="R173" s="2" t="s">
+      <c r="R173" s="3" t="s">
         <v>918</v>
       </c>
       <c r="S173" s="3" t="s">
@@ -14492,26 +14496,26 @@
       <c r="T173" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U173" s="2" t="s">
+      <c r="U173" s="3" t="s">
         <v>920</v>
       </c>
       <c r="V173" s="2"/>
-      <c r="W173" s="2" t="s">
+      <c r="W173" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="X173" s="2" t="s">
+      <c r="X173" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y173" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="Z173" s="2" t="s">
+      <c r="Z173" s="3" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C174" s="2"/>
@@ -14539,7 +14543,7 @@
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
-      <c r="R174" s="2" t="s">
+      <c r="R174" s="3" t="s">
         <v>924</v>
       </c>
       <c r="S174" s="3" t="s">
@@ -14548,26 +14552,26 @@
       <c r="T174" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U174" s="2" t="s">
+      <c r="U174" s="3" t="s">
         <v>926</v>
       </c>
       <c r="V174" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W174" s="2" t="s">
+      <c r="W174" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X174" s="2" t="s">
+      <c r="X174" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y174" s="2"/>
-      <c r="Z174" s="2" t="s">
+      <c r="Z174" s="3" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C175" s="2"/>
@@ -14601,7 +14605,7 @@
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
-      <c r="R175" s="2" t="s">
+      <c r="R175" s="3" t="s">
         <v>928</v>
       </c>
       <c r="S175" s="3" t="s">
@@ -14610,28 +14614,28 @@
       <c r="T175" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U175" s="2" t="s">
+      <c r="U175" s="3" t="s">
         <v>930</v>
       </c>
       <c r="V175" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W175" s="2" t="s">
+      <c r="W175" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="X175" s="2" t="s">
+      <c r="X175" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y175" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z175" s="2" t="s">
+      <c r="Z175" s="3" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C176" s="2"/>
@@ -14665,7 +14669,7 @@
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
-      <c r="R176" s="2" t="s">
+      <c r="R176" s="3" t="s">
         <v>934</v>
       </c>
       <c r="S176" s="3" t="s">
@@ -14674,26 +14678,26 @@
       <c r="T176" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U176" s="2" t="s">
+      <c r="U176" s="3" t="s">
         <v>936</v>
       </c>
       <c r="V176" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W176" s="2" t="s">
+      <c r="W176" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X176" s="2" t="s">
+      <c r="X176" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y176" s="2"/>
-      <c r="Z176" s="2" t="s">
+      <c r="Z176" s="3" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C177" s="2"/>
@@ -14727,7 +14731,7 @@
       </c>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
-      <c r="R177" s="2" t="s">
+      <c r="R177" s="3" t="s">
         <v>939</v>
       </c>
       <c r="S177" s="3" t="s">
@@ -14736,26 +14740,26 @@
       <c r="T177" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U177" s="2" t="s">
+      <c r="U177" s="3" t="s">
         <v>941</v>
       </c>
       <c r="V177" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W177" s="2" t="s">
+      <c r="W177" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X177" s="2" t="s">
+      <c r="X177" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y177" s="2"/>
-      <c r="Z177" s="2" t="s">
+      <c r="Z177" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C178" s="2"/>
@@ -14789,7 +14793,7 @@
       </c>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
-      <c r="R178" s="2" t="s">
+      <c r="R178" s="3" t="s">
         <v>943</v>
       </c>
       <c r="S178" s="3" t="s">
@@ -14798,26 +14802,26 @@
       <c r="T178" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U178" s="2" t="s">
+      <c r="U178" s="3" t="s">
         <v>945</v>
       </c>
       <c r="V178" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W178" s="2" t="s">
+      <c r="W178" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X178" s="2" t="s">
+      <c r="X178" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y178" s="2"/>
-      <c r="Z178" s="2" t="s">
+      <c r="Z178" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C179" s="2"/>
@@ -14851,7 +14855,7 @@
       </c>
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
-      <c r="R179" s="2" t="s">
+      <c r="R179" s="3" t="s">
         <v>947</v>
       </c>
       <c r="S179" s="3" t="s">
@@ -14860,26 +14864,26 @@
       <c r="T179" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U179" s="2" t="s">
+      <c r="U179" s="3" t="s">
         <v>949</v>
       </c>
       <c r="V179" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W179" s="2" t="s">
+      <c r="W179" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X179" s="2" t="s">
+      <c r="X179" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y179" s="2"/>
-      <c r="Z179" s="2" t="s">
+      <c r="Z179" s="3" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C180" s="2"/>
@@ -14913,7 +14917,7 @@
       </c>
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
-      <c r="R180" s="2" t="s">
+      <c r="R180" s="3" t="s">
         <v>290</v>
       </c>
       <c r="S180" s="3" t="s">
@@ -14922,26 +14926,26 @@
       <c r="T180" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U180" s="2" t="s">
+      <c r="U180" s="3" t="s">
         <v>951</v>
       </c>
       <c r="V180" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W180" s="2" t="s">
+      <c r="W180" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X180" s="2" t="s">
+      <c r="X180" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y180" s="2"/>
-      <c r="Z180" s="2" t="s">
+      <c r="Z180" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C181" s="2"/>
@@ -14975,7 +14979,7 @@
       </c>
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
-      <c r="R181" s="2" t="s">
+      <c r="R181" s="3" t="s">
         <v>953</v>
       </c>
       <c r="S181" s="3" t="s">
@@ -14984,26 +14988,26 @@
       <c r="T181" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U181" s="2" t="s">
+      <c r="U181" s="3" t="s">
         <v>955</v>
       </c>
       <c r="V181" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W181" s="2" t="s">
+      <c r="W181" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X181" s="2" t="s">
+      <c r="X181" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y181" s="2"/>
-      <c r="Z181" s="2" t="s">
+      <c r="Z181" s="3" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C182" s="2"/>
@@ -15037,7 +15041,7 @@
       </c>
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
-      <c r="R182" s="2" t="s">
+      <c r="R182" s="3" t="s">
         <v>957</v>
       </c>
       <c r="S182" s="3" t="s">
@@ -15046,28 +15050,28 @@
       <c r="T182" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U182" s="2" t="s">
+      <c r="U182" s="3" t="s">
         <v>959</v>
       </c>
       <c r="V182" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W182" s="2" t="s">
+      <c r="W182" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="X182" s="2" t="s">
+      <c r="X182" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y182" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Z182" s="2" t="s">
+      <c r="Z182" s="3" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C183" s="2"/>
@@ -15101,7 +15105,7 @@
       </c>
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
-      <c r="R183" s="2" t="s">
+      <c r="R183" s="3" t="s">
         <v>961</v>
       </c>
       <c r="S183" s="3" t="s">
@@ -15110,26 +15114,26 @@
       <c r="T183" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U183" s="2" t="s">
+      <c r="U183" s="3" t="s">
         <v>963</v>
       </c>
       <c r="V183" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="W183" s="2" t="s">
+      <c r="W183" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X183" s="2" t="s">
+      <c r="X183" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y183" s="2"/>
-      <c r="Z183" s="2" t="s">
+      <c r="Z183" s="3" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C184" s="2"/>
@@ -15163,7 +15167,7 @@
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
-      <c r="R184" s="2" t="s">
+      <c r="R184" s="3" t="s">
         <v>966</v>
       </c>
       <c r="S184" s="3" t="s">
@@ -15172,26 +15176,26 @@
       <c r="T184" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U184" s="2" t="s">
+      <c r="U184" s="3" t="s">
         <v>968</v>
       </c>
       <c r="V184" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W184" s="2" t="s">
+      <c r="W184" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X184" s="2" t="s">
+      <c r="X184" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y184" s="2"/>
-      <c r="Z184" s="2" t="s">
+      <c r="Z184" s="3" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C185" s="2"/>
@@ -15225,7 +15229,7 @@
       </c>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
-      <c r="R185" s="2" t="s">
+      <c r="R185" s="3" t="s">
         <v>971</v>
       </c>
       <c r="S185" s="3" t="s">
@@ -15234,26 +15238,26 @@
       <c r="T185" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U185" s="2" t="s">
+      <c r="U185" s="3" t="s">
         <v>973</v>
       </c>
       <c r="V185" s="2"/>
-      <c r="W185" s="2" t="s">
+      <c r="W185" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="X185" s="2" t="s">
+      <c r="X185" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y185" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="Z185" s="2" t="s">
+      <c r="Z185" s="3" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C186" s="2"/>
@@ -15287,7 +15291,7 @@
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
-      <c r="R186" s="2" t="s">
+      <c r="R186" s="3" t="s">
         <v>977</v>
       </c>
       <c r="S186" s="3" t="s">
@@ -15296,26 +15300,26 @@
       <c r="T186" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U186" s="2" t="s">
+      <c r="U186" s="3" t="s">
         <v>979</v>
       </c>
       <c r="V186" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W186" s="2" t="s">
+      <c r="W186" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X186" s="2" t="s">
+      <c r="X186" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y186" s="2"/>
-      <c r="Z186" s="2" t="s">
+      <c r="Z186" s="3" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C187" s="2"/>
@@ -15349,7 +15353,7 @@
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
-      <c r="R187" s="2" t="s">
+      <c r="R187" s="3" t="s">
         <v>982</v>
       </c>
       <c r="S187" s="3" t="s">
@@ -15358,26 +15362,26 @@
       <c r="T187" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U187" s="2" t="s">
+      <c r="U187" s="3" t="s">
         <v>984</v>
       </c>
       <c r="V187" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W187" s="2" t="s">
+      <c r="W187" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X187" s="2" t="s">
+      <c r="X187" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y187" s="2"/>
-      <c r="Z187" s="2" t="s">
+      <c r="Z187" s="3" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C188" s="2"/>
@@ -15411,7 +15415,7 @@
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
-      <c r="R188" s="2" t="s">
+      <c r="R188" s="3" t="s">
         <v>987</v>
       </c>
       <c r="S188" s="3" t="s">
@@ -15420,26 +15424,26 @@
       <c r="T188" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U188" s="2" t="s">
+      <c r="U188" s="3" t="s">
         <v>989</v>
       </c>
       <c r="V188" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W188" s="2" t="s">
+      <c r="W188" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X188" s="2" t="s">
+      <c r="X188" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y188" s="2"/>
-      <c r="Z188" s="2" t="s">
+      <c r="Z188" s="3" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C189" s="2"/>
@@ -15473,7 +15477,7 @@
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
-      <c r="R189" s="2" t="s">
+      <c r="R189" s="3" t="s">
         <v>991</v>
       </c>
       <c r="S189" s="3" t="s">
@@ -15482,26 +15486,26 @@
       <c r="T189" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U189" s="2" t="s">
+      <c r="U189" s="3" t="s">
         <v>993</v>
       </c>
       <c r="V189" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W189" s="2" t="s">
+      <c r="W189" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X189" s="2" t="s">
+      <c r="X189" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y189" s="2"/>
-      <c r="Z189" s="2" t="s">
+      <c r="Z189" s="3" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C190" s="2"/>
@@ -15535,7 +15539,7 @@
       </c>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
-      <c r="R190" s="2" t="s">
+      <c r="R190" s="3" t="s">
         <v>995</v>
       </c>
       <c r="S190" s="3" t="s">
@@ -15544,26 +15548,26 @@
       <c r="T190" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U190" s="2" t="s">
+      <c r="U190" s="3" t="s">
         <v>997</v>
       </c>
       <c r="V190" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W190" s="2" t="s">
+      <c r="W190" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X190" s="2" t="s">
+      <c r="X190" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y190" s="2"/>
-      <c r="Z190" s="2" t="s">
+      <c r="Z190" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C191" s="2"/>
@@ -15591,7 +15595,7 @@
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
-      <c r="R191" s="2" t="s">
+      <c r="R191" s="3" t="s">
         <v>999</v>
       </c>
       <c r="S191" s="3" t="s">
@@ -15600,26 +15604,26 @@
       <c r="T191" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U191" s="2" t="s">
+      <c r="U191" s="3" t="s">
         <v>1001</v>
       </c>
       <c r="V191" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W191" s="2" t="s">
+      <c r="W191" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="X191" s="2" t="s">
+      <c r="X191" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y191" s="2"/>
-      <c r="Z191" s="2" t="s">
+      <c r="Z191" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C192" s="2"/>
@@ -15653,7 +15657,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
-      <c r="R192" s="2" t="s">
+      <c r="R192" s="3" t="s">
         <v>1005</v>
       </c>
       <c r="S192" s="3" t="s">
@@ -15662,26 +15666,26 @@
       <c r="T192" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U192" s="2" t="s">
+      <c r="U192" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="V192" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W192" s="2" t="s">
+      <c r="W192" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="X192" s="2" t="s">
+      <c r="X192" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y192" s="2"/>
-      <c r="Z192" s="2" t="s">
+      <c r="Z192" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C193" s="2"/>
@@ -15715,7 +15719,7 @@
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
-      <c r="R193" s="2" t="s">
+      <c r="R193" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="S193" s="3" t="s">
@@ -15724,26 +15728,26 @@
       <c r="T193" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U193" s="2" t="s">
+      <c r="U193" s="3" t="s">
         <v>1013</v>
       </c>
       <c r="V193" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W193" s="2" t="s">
+      <c r="W193" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X193" s="2" t="s">
+      <c r="X193" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y193" s="2"/>
-      <c r="Z193" s="2" t="s">
+      <c r="Z193" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C194" s="2"/>
@@ -15777,7 +15781,7 @@
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
-      <c r="R194" s="2" t="s">
+      <c r="R194" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="S194" s="3" t="s">
@@ -15786,26 +15790,26 @@
       <c r="T194" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U194" s="2" t="s">
+      <c r="U194" s="3" t="s">
         <v>1018</v>
       </c>
       <c r="V194" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W194" s="2" t="s">
+      <c r="W194" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X194" s="2" t="s">
+      <c r="X194" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y194" s="2"/>
-      <c r="Z194" s="2" t="s">
+      <c r="Z194" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C195" s="2"/>
@@ -15839,7 +15843,7 @@
       </c>
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
-      <c r="R195" s="2" t="s">
+      <c r="R195" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="S195" s="3" t="s">
@@ -15848,28 +15852,28 @@
       <c r="T195" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U195" s="2" t="s">
+      <c r="U195" s="3" t="s">
         <v>1023</v>
       </c>
       <c r="V195" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W195" s="2" t="s">
+      <c r="W195" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X195" s="2" t="s">
+      <c r="X195" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y195" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z195" s="2" t="s">
+      <c r="Z195" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C196" s="2"/>
@@ -15903,7 +15907,7 @@
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
-      <c r="R196" s="2" t="s">
+      <c r="R196" s="3" t="s">
         <v>1026</v>
       </c>
       <c r="S196" s="3" t="s">
@@ -15912,26 +15916,26 @@
       <c r="T196" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U196" s="2" t="s">
+      <c r="U196" s="3" t="s">
         <v>1028</v>
       </c>
       <c r="V196" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W196" s="2" t="s">
+      <c r="W196" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X196" s="2" t="s">
+      <c r="X196" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y196" s="2"/>
-      <c r="Z196" s="2" t="s">
+      <c r="Z196" s="3" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C197" s="2"/>
@@ -15965,7 +15969,7 @@
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
-      <c r="R197" s="2" t="s">
+      <c r="R197" s="3" t="s">
         <v>1030</v>
       </c>
       <c r="S197" s="3" t="s">
@@ -15974,26 +15978,26 @@
       <c r="T197" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U197" s="2" t="s">
+      <c r="U197" s="3" t="s">
         <v>1032</v>
       </c>
       <c r="V197" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W197" s="2" t="s">
+      <c r="W197" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X197" s="2" t="s">
+      <c r="X197" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y197" s="2"/>
-      <c r="Z197" s="2" t="s">
+      <c r="Z197" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C198" s="2"/>
@@ -16021,7 +16025,7 @@
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
-      <c r="R198" s="2" t="s">
+      <c r="R198" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="S198" s="3" t="s">
@@ -16030,28 +16034,28 @@
       <c r="T198" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U198" s="2" t="s">
+      <c r="U198" s="3" t="s">
         <v>1036</v>
       </c>
       <c r="V198" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="W198" s="2" t="s">
+      <c r="W198" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="X198" s="2" t="s">
+      <c r="X198" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y198" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="Z198" s="2" t="s">
+      <c r="Z198" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C199" s="2"/>
@@ -16085,7 +16089,7 @@
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
-      <c r="R199" s="2" t="s">
+      <c r="R199" s="3" t="s">
         <v>1042</v>
       </c>
       <c r="S199" s="3" t="s">
@@ -16094,26 +16098,26 @@
       <c r="T199" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U199" s="2" t="s">
+      <c r="U199" s="3" t="s">
         <v>1044</v>
       </c>
       <c r="V199" s="2"/>
-      <c r="W199" s="2" t="s">
+      <c r="W199" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="X199" s="2" t="s">
+      <c r="X199" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y199" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="Z199" s="2" t="s">
+      <c r="Z199" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C200" s="2"/>
@@ -16141,7 +16145,7 @@
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
-      <c r="R200" s="2" t="s">
+      <c r="R200" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="S200" s="3" t="s">
@@ -16150,26 +16154,26 @@
       <c r="T200" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U200" s="2" t="s">
+      <c r="U200" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="V200" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W200" s="2" t="s">
+      <c r="W200" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X200" s="2" t="s">
+      <c r="X200" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y200" s="2"/>
-      <c r="Z200" s="2" t="s">
+      <c r="Z200" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C201" s="2"/>
@@ -16203,7 +16207,7 @@
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
-      <c r="R201" s="2" t="s">
+      <c r="R201" s="3" t="s">
         <v>1051</v>
       </c>
       <c r="S201" s="3" t="s">
@@ -16212,26 +16216,26 @@
       <c r="T201" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U201" s="2" t="s">
+      <c r="U201" s="3" t="s">
         <v>1053</v>
       </c>
       <c r="V201" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W201" s="2" t="s">
+      <c r="W201" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X201" s="2" t="s">
+      <c r="X201" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y201" s="2"/>
-      <c r="Z201" s="2" t="s">
+      <c r="Z201" s="3" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C202" s="2"/>
@@ -16265,7 +16269,7 @@
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
-      <c r="R202" s="2" t="s">
+      <c r="R202" s="3" t="s">
         <v>1055</v>
       </c>
       <c r="S202" s="3" t="s">
@@ -16274,26 +16278,26 @@
       <c r="T202" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U202" s="2" t="s">
+      <c r="U202" s="3" t="s">
         <v>1057</v>
       </c>
       <c r="V202" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W202" s="2" t="s">
+      <c r="W202" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X202" s="2" t="s">
+      <c r="X202" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y202" s="2"/>
-      <c r="Z202" s="2" t="s">
+      <c r="Z202" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C203" s="2"/>
@@ -16327,7 +16331,7 @@
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
-      <c r="R203" s="2" t="s">
+      <c r="R203" s="3" t="s">
         <v>1060</v>
       </c>
       <c r="S203" s="3" t="s">
@@ -16336,26 +16340,26 @@
       <c r="T203" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U203" s="2" t="s">
+      <c r="U203" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="V203" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W203" s="2" t="s">
+      <c r="W203" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X203" s="2" t="s">
+      <c r="X203" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y203" s="2"/>
-      <c r="Z203" s="2" t="s">
+      <c r="Z203" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C204" s="2"/>
@@ -16389,7 +16393,7 @@
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" s="2"/>
-      <c r="R204" s="2" t="s">
+      <c r="R204" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="S204" s="3" t="s">
@@ -16398,26 +16402,26 @@
       <c r="T204" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U204" s="2" t="s">
+      <c r="U204" s="3" t="s">
         <v>1066</v>
       </c>
       <c r="V204" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W204" s="2" t="s">
+      <c r="W204" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X204" s="2" t="s">
+      <c r="X204" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y204" s="2"/>
-      <c r="Z204" s="2" t="s">
+      <c r="Z204" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C205" s="2"/>
@@ -16451,7 +16455,7 @@
       </c>
       <c r="P205" s="2"/>
       <c r="Q205" s="2"/>
-      <c r="R205" s="2" t="s">
+      <c r="R205" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="S205" s="3" t="s">
@@ -16460,28 +16464,28 @@
       <c r="T205" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U205" s="2" t="s">
+      <c r="U205" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="V205" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W205" s="2" t="s">
+      <c r="W205" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="X205" s="2" t="s">
+      <c r="X205" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y205" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z205" s="2" t="s">
+      <c r="Z205" s="3" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C206" s="2"/>
@@ -16515,7 +16519,7 @@
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" s="2"/>
-      <c r="R206" s="2" t="s">
+      <c r="R206" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="S206" s="3" t="s">
@@ -16524,26 +16528,26 @@
       <c r="T206" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U206" s="2" t="s">
+      <c r="U206" s="3" t="s">
         <v>1077</v>
       </c>
       <c r="V206" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W206" s="2" t="s">
+      <c r="W206" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X206" s="2" t="s">
+      <c r="X206" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y206" s="2"/>
-      <c r="Z206" s="2" t="s">
+      <c r="Z206" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C207" s="2"/>
@@ -16577,7 +16581,7 @@
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" s="2"/>
-      <c r="R207" s="2" t="s">
+      <c r="R207" s="3" t="s">
         <v>1080</v>
       </c>
       <c r="S207" s="3" t="s">
@@ -16586,26 +16590,26 @@
       <c r="T207" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U207" s="2" t="s">
+      <c r="U207" s="3" t="s">
         <v>1082</v>
       </c>
       <c r="V207" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W207" s="2" t="s">
+      <c r="W207" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X207" s="2" t="s">
+      <c r="X207" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y207" s="2"/>
-      <c r="Z207" s="2" t="s">
+      <c r="Z207" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C208" s="2"/>
@@ -16633,7 +16637,7 @@
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" s="2"/>
-      <c r="R208" s="2" t="s">
+      <c r="R208" s="3" t="s">
         <v>1085</v>
       </c>
       <c r="S208" s="3" t="s">
@@ -16642,26 +16646,26 @@
       <c r="T208" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U208" s="2" t="s">
+      <c r="U208" s="3" t="s">
         <v>1087</v>
       </c>
       <c r="V208" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W208" s="2" t="s">
+      <c r="W208" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="X208" s="2" t="s">
+      <c r="X208" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y208" s="2"/>
-      <c r="Z208" s="2" t="s">
+      <c r="Z208" s="3" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C209" s="2"/>
@@ -16695,7 +16699,7 @@
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
-      <c r="R209" s="2" t="s">
+      <c r="R209" s="3" t="s">
         <v>1092</v>
       </c>
       <c r="S209" s="3" t="s">
@@ -16704,26 +16708,26 @@
       <c r="T209" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U209" s="2" t="s">
+      <c r="U209" s="3" t="s">
         <v>1094</v>
       </c>
       <c r="V209" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W209" s="2">
+      <c r="W209" s="3">
         <v>678959</v>
       </c>
-      <c r="X209" s="2" t="s">
+      <c r="X209" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y209" s="2"/>
-      <c r="Z209" s="2" t="s">
+      <c r="Z209" s="3" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C210" s="2"/>
@@ -16757,7 +16761,7 @@
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" s="2"/>
-      <c r="R210" s="2" t="s">
+      <c r="R210" s="3" t="s">
         <v>1097</v>
       </c>
       <c r="S210" s="3" t="s">
@@ -16766,26 +16770,26 @@
       <c r="T210" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U210" s="2" t="s">
+      <c r="U210" s="3" t="s">
         <v>1099</v>
       </c>
       <c r="V210" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W210" s="2" t="s">
+      <c r="W210" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X210" s="2" t="s">
+      <c r="X210" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y210" s="2"/>
-      <c r="Z210" s="2" t="s">
+      <c r="Z210" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C211" s="2"/>
@@ -16819,7 +16823,7 @@
       </c>
       <c r="P211" s="2"/>
       <c r="Q211" s="2"/>
-      <c r="R211" s="2" t="s">
+      <c r="R211" s="3" t="s">
         <v>1102</v>
       </c>
       <c r="S211" s="3" t="s">
@@ -16828,26 +16832,26 @@
       <c r="T211" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U211" s="2" t="s">
+      <c r="U211" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="V211" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="W211" s="2">
+      <c r="W211" s="3">
         <v>731115</v>
       </c>
-      <c r="X211" s="2" t="s">
+      <c r="X211" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y211" s="2"/>
-      <c r="Z211" s="2" t="s">
+      <c r="Z211" s="3" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C212" s="2"/>
@@ -16881,7 +16885,7 @@
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
-      <c r="R212" s="2" t="s">
+      <c r="R212" s="3" t="s">
         <v>1107</v>
       </c>
       <c r="S212" s="3" t="s">
@@ -16890,26 +16894,26 @@
       <c r="T212" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U212" s="2" t="s">
+      <c r="U212" s="3" t="s">
         <v>1109</v>
       </c>
       <c r="V212" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W212" s="2" t="s">
+      <c r="W212" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X212" s="2" t="s">
+      <c r="X212" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y212" s="2"/>
-      <c r="Z212" s="2" t="s">
+      <c r="Z212" s="3" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C213" s="2"/>
@@ -16943,7 +16947,7 @@
       </c>
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
-      <c r="R213" s="2" t="s">
+      <c r="R213" s="3" t="s">
         <v>1111</v>
       </c>
       <c r="S213" s="3" t="s">
@@ -16952,28 +16956,28 @@
       <c r="T213" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U213" s="2" t="s">
+      <c r="U213" s="3" t="s">
         <v>1113</v>
       </c>
       <c r="V213" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W213" s="2">
+      <c r="W213" s="3">
         <v>793133</v>
       </c>
-      <c r="X213" s="2" t="s">
+      <c r="X213" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y213" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z213" s="2" t="s">
+      <c r="Z213" s="3" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C214" s="2"/>
@@ -17007,7 +17011,7 @@
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
-      <c r="R214" s="2" t="s">
+      <c r="R214" s="3" t="s">
         <v>1115</v>
       </c>
       <c r="S214" s="3" t="s">
@@ -17016,26 +17020,26 @@
       <c r="T214" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U214" s="2" t="s">
+      <c r="U214" s="3" t="s">
         <v>1117</v>
       </c>
       <c r="V214" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W214" s="2" t="s">
+      <c r="W214" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X214" s="2" t="s">
+      <c r="X214" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y214" s="2"/>
-      <c r="Z214" s="2" t="s">
+      <c r="Z214" s="3" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C215" s="2"/>
@@ -17069,7 +17073,7 @@
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
-      <c r="R215" s="2" t="s">
+      <c r="R215" s="3" t="s">
         <v>1120</v>
       </c>
       <c r="S215" s="3" t="s">
@@ -17078,20 +17082,20 @@
       <c r="T215" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U215" s="2" t="s">
+      <c r="U215" s="3" t="s">
         <v>1122</v>
       </c>
       <c r="V215" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W215" s="2" t="s">
+      <c r="W215" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="X215" s="2" t="s">
+      <c r="X215" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Y215" s="2"/>
-      <c r="Z215" s="2" t="s">
+      <c r="Z215" s="3" t="s">
         <v>1124</v>
       </c>
     </row>
